--- a/PhysicsExperiments.xlsx
+++ b/PhysicsExperiments.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabak\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\PhysicsMechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F14ECE-5328-4D16-99A2-C73268A2DA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88491C1-B6CB-4DD1-B0DF-73423F459662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>σ =</t>
   </si>
@@ -607,9 +607,6 @@
     <t>60 გრამი</t>
   </si>
   <si>
-    <t>75 გრამი</t>
-  </si>
-  <si>
     <r>
       <t>აჩქარება
 (მ/წმ</t>
@@ -749,18 +746,128 @@
       <t xml:space="preserve"> - σ =</t>
     </r>
   </si>
+  <si>
+    <t>70 გრამი</t>
+  </si>
+  <si>
+    <t xml:space="preserve">პასუხები:
+1) მაქსიმალურად შევამციროთ ცდომილება.
+საწყისი სიჩქარე უნდა იყოს 0;
+2) წინაღობის შედეგად აჩქარება შემცირდება;
+</t>
+  </si>
+  <si>
+    <t>3) როცა წინაღობის ძალა g-ს გაუტოლდება;
+4) ერთდროულად;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">პასუხები:
+1) აშკარად ჩანს;
+2) ექსპერიმენტის ცდომილება არ აღემატება 0.1%-ს;
+3) არ შეიცვლება ხახუნის კოეფიციენტი,  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mg sinα = µmg cosα;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4) ამის შედეგად ცდომილება გაიზრდება;
+5) µ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> არის მაქსიმალური მნიშვნელობა, µ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; µ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
+6) კი, როდესაც 2 სხეულის ზედაპირი თითქმის იდეალურად ბრტყელია/გაპრიალებულია, ხახუნის კოეფიციენტი ბევრად აღემატება 1-ს;</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,13 +952,6 @@
     <font>
       <vertAlign val="superscript"/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1041,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1070,15 +1170,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1091,26 +1182,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1147,6 +1241,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3495,15 +3622,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3526,6 +3653,252 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>16946</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E035FC-FE1F-43AD-B71E-E8BB8D1C97D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5503346" y="1619251"/>
+          <a:ext cx="1478479" cy="1457324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>579782</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28147</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F35EF5-54CC-4841-9186-01A5F3909147}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7065893" y="1578665"/>
+          <a:ext cx="1481759" cy="1514047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>97047</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>118613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>539151</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>370216</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA48A39-1936-4E1A-9C25-B28CF8C3F39F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5596387" y="1660585"/>
+          <a:ext cx="1053141" cy="251603"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="800"/>
+            <a:t>წინაღობის</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="800" baseline="0"/>
+            <a:t> გარეშე</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>452887</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>111424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>327085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE313892-8F01-4399-BCAF-889E5759AB16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7174302" y="1653396"/>
+          <a:ext cx="769189" cy="215661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="800"/>
+            <a:t>წინაღობით</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3590,12 +3963,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409812</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1132618" cy="396327"/>
+    <xdr:ext cx="1017843" cy="396327"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
@@ -3609,8 +3982,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="552450" y="4152900"/>
-          <a:ext cx="1132618" cy="396327"/>
+          <a:off x="7182087" y="1009650"/>
+          <a:ext cx="1017843" cy="396327"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3653,8 +4026,12 @@
             <a:t>F</a:t>
           </a:r>
           <a:r>
+            <a:rPr lang="ka-GE" sz="1800" baseline="-25000"/>
+            <a:t>ხახ</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="ka-GE" sz="1800"/>
-            <a:t>ხახ = µ</a:t>
+            <a:t> = µ</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1800"/>
@@ -3667,10 +4044,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1114425" cy="428625"/>
     <xdr:sp macro="" textlink="">
@@ -3686,7 +4063,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="514349" y="4772025"/>
+          <a:off x="7115174" y="1438275"/>
           <a:ext cx="1114425" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3796,16 +4173,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>638175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3820,8 +4197,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1904999" y="4181475"/>
-          <a:ext cx="2790825" cy="447675"/>
+          <a:off x="6362700" y="2371725"/>
+          <a:ext cx="2657476" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3859,7 +4236,15 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1800"/>
-            <a:t>Fmax = mg sin</a:t>
+            <a:t>F</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="30000"/>
+            <a:t>max</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t> = mg sin</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="el-GR" sz="1800"/>
@@ -3881,16 +4266,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3905,7 +4290,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1933575" y="4791075"/>
+          <a:off x="6838950" y="1905000"/>
           <a:ext cx="1600200" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3944,7 +4329,15 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1800"/>
-            <a:t>ma = mg - µkN</a:t>
+            <a:t>ma = mg - µ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="-25000"/>
+            <a:t>k</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>N</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4264,21 +4657,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.35">
@@ -4366,11 +4759,11 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="8"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="36">
+      <c r="K6" s="29"/>
+      <c r="L6" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="31">
         <f>(M3+M4)</f>
         <v>2.1579990564646669</v>
       </c>
@@ -4387,8 +4780,8 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
-      <c r="L7" s="37" t="s">
-        <v>41</v>
+      <c r="L7" s="32" t="s">
+        <v>40</v>
       </c>
       <c r="M7" s="4">
         <f>(M3*M4)</f>
@@ -4465,10 +4858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1AF488-8A07-44F3-B45D-4ED1CA3499D8}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4477,22 +4870,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
@@ -4519,6 +4912,13 @@
       <c r="I3" s="17" t="s">
         <v>22</v>
       </c>
+      <c r="J3" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -4548,6 +4948,11 @@
       <c r="I4" s="1">
         <v>9.7893340000000002</v>
       </c>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -4577,6 +4982,11 @@
       <c r="I5" s="1">
         <v>9.8269470000000005</v>
       </c>
+      <c r="J5" s="57"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -4606,6 +5016,11 @@
       <c r="I6" s="1">
         <v>9.811223</v>
       </c>
+      <c r="J6" s="57"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -4635,6 +5050,11 @@
       <c r="I7" s="1">
         <v>9.8327930000000006</v>
       </c>
+      <c r="J7" s="55"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -4664,59 +5084,90 @@
       <c r="I8" s="1">
         <v>9.774661</v>
       </c>
+      <c r="J8" s="56"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
     </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+    </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K11" s="38" t="s">
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="40"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="38"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K12" s="41"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="43"/>
+    <row r="15" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="39"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="41"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K13" s="41"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="43"/>
+    <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="41"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K14" s="41"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="43"/>
+    <row r="17" spans="10:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K15" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="46"/>
+    <row r="18" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J18" s="42"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="44"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K16" s="44"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="46"/>
+    <row r="19" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J19" s="42"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="44"/>
     </row>
-    <row r="17" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K17" s="47"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="49"/>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20" s="45"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="J9:N11"/>
+    <mergeCell ref="J14:M16"/>
+    <mergeCell ref="J17:M20"/>
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="K11:N14"/>
-    <mergeCell ref="K15:N17"/>
+    <mergeCell ref="J3:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4735,22 +5186,22 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4764,36 +5215,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9539C81-82B6-45CB-A056-2EC90B7C30A0}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="7" width="15.140625" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
     </row>
     <row r="4" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -4807,109 +5259,233 @@
         <v>29</v>
       </c>
       <c r="F4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="23">
-        <v>1.3472999999999999</v>
-      </c>
-      <c r="D5" s="23">
-        <v>1.3469</v>
-      </c>
-      <c r="E5" s="23">
-        <v>1.329</v>
-      </c>
-      <c r="F5" s="23">
+      <c r="C5" s="20">
+        <v>1.4676</v>
+      </c>
+      <c r="D5" s="20">
+        <v>1.4705999999999999</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1.4693000000000001</v>
+      </c>
+      <c r="F5" s="20">
         <v>0.556917</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="20">
         <v>0.40139000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="20">
         <v>0.96840000000000004</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="20">
         <v>0.97640000000000005</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="20">
         <v>0.97009999999999996</v>
       </c>
-      <c r="F6" s="23">
-        <v>0.16281200000000001</v>
-      </c>
-      <c r="G6" s="23">
+      <c r="F6" s="20">
+        <v>1.0628120000000001</v>
+      </c>
+      <c r="G6" s="20">
         <v>0.40792</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="23">
+      <c r="B7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="20">
         <v>0.7984</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="21">
         <v>0.80100000000000005</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="20">
         <v>0.79679999999999995</v>
       </c>
-      <c r="F7" s="23">
-        <v>0.15625</v>
-      </c>
-      <c r="G7" s="23">
+      <c r="F7" s="50">
+        <v>1.5625</v>
+      </c>
+      <c r="G7" s="20">
         <v>0.40544999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I8" s="6"/>
+      <c r="J8" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I9" s="12"/>
+      <c r="J9" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="23"/>
+      <c r="I10" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="49"/>
+      <c r="K10" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H13" s="6"/>
-      <c r="I13" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>36</v>
-      </c>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H14" s="12"/>
-      <c r="I14" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>38</v>
-      </c>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
     </row>
-    <row r="17" spans="8:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H17" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="27">
-        <v>1E-3</v>
-      </c>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="H17:I17"/>
+  <mergeCells count="3">
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A11:L19"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/PhysicsExperiments.xlsx
+++ b/PhysicsExperiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\PhysicsMechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88491C1-B6CB-4DD1-B0DF-73423F459662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0F4D5E-91FF-4B7A-9010-BB700849B7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment_1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>σ =</t>
   </si>
@@ -853,6 +853,478 @@
       </rPr>
       <t>;
 6) კი, როდესაც 2 სხეულის ზედაპირი თითქმის იდეალურად ბრტყელია/გაპრიალებულია, ხახუნის კოეფიციენტი ბევრად აღემატება 1-ს;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ცდა 1
+t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (წმ)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ცდა 2
+t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (წმ)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ცდა 3
+t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (წმ)</t>
+    </r>
+  </si>
+  <si>
+    <t>20-900
+(გრ)</t>
+  </si>
+  <si>
+    <t>40-880
+(გრ)</t>
+  </si>
+  <si>
+    <t>4-1840
+(გრ)</t>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <t>0.4 მ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D = </t>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1თეორიული</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2თეორიული</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3თეორიული</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
     </r>
   </si>
 </sst>
@@ -867,7 +1339,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -983,6 +1455,14 @@
     <font>
       <vertAlign val="subscript"/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1141,12 +1621,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1197,14 +1674,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1242,38 +1731,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3906,54 +4406,104 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>272328</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E5E7B7-09E1-412D-A44D-CF26FC982846}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE566F8-1A0B-4481-80E8-19530B7414B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2162175" y="1238251"/>
-          <a:ext cx="4206153" cy="3981450"/>
+          <a:off x="5267324" y="885825"/>
+          <a:ext cx="2771775" cy="1428750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1400" b="1"/>
+            <a:t>პასუხები:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1400"/>
+            <a:t>1) აჩქარება გაიზრდება 2-ჯერ;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1400"/>
+            <a:t>2) აჩქარება შემცირდება 2-ჯერ;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1400"/>
+            <a:t>3) აჩქარება გაიზრდება 2-ჯერ;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1400"/>
+            <a:t>4) აჩქარება შემცირდება 4-ჯერ;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4644,10 +5194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EFAF04-10AE-472A-9F56-F1601CEB5CA6}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4656,194 +5206,193 @@
     <col min="11" max="11" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="2"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
-    <row r="2" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>2.1556999999999999</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2.1499000000000001</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="L3" s="3" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="L3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <f>(SUM(B2:B11)/COUNT(B2:B11))</f>
         <v>2.1419900000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>2.1492</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="L4" s="3" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="L4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="4" cm="1">
+      <c r="M4" s="3" cm="1">
         <f t="array" ref="M4">SQRT((1/(COUNT(B2:B11)-1))*SUM((B2:B11-M3)^2))</f>
         <v>1.6009056464666733E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>2.1406000000000001</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="L5" s="3" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="L5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <f>M4/SQRT(COUNT(B2:B11))</f>
         <v>5.0625081618589779E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>2.1520999999999999</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="30" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="30">
         <f>(M3+M4)</f>
         <v>2.1579990564646669</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>2.1429999999999998</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="L7" s="32" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="L7" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <f>(M3*M4)</f>
         <v>3.4291238856751498E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>2.1150000000000002</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>2.1555</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>2.1478000000000002</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>2.1111</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4860,7 +5409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1AF488-8A07-44F3-B45D-4ED1CA3499D8}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
@@ -4870,191 +5419,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>0.25</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>0.22600000000000001</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>0.22600000000000001</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <f>(AVERAGE(C4:E4))</f>
         <v>0.22566666666666668</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="17">
         <f>(B4/F4)</f>
         <v>1.1078286558345642</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="17">
         <f>G4*2</f>
         <v>2.2156573116691285</v>
       </c>
       <c r="I4" s="1">
         <v>9.7893340000000002</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>0.5</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>0.31900000000000001</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>0.32</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>0.31900000000000001</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <f t="shared" ref="F5:F8" si="0">(AVERAGE(C5:E5))</f>
         <v>0.3193333333333333</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <f t="shared" ref="G5:G8" si="1">(B5/F5)</f>
         <v>1.5657620041753655</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <f t="shared" ref="H5:H8" si="2">G5*2</f>
         <v>3.131524008350731</v>
       </c>
       <c r="I5" s="1">
         <v>9.8269470000000005</v>
       </c>
-      <c r="J5" s="57"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>0.75</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>0.39100000000000001</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>0.39200000000000002</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>0.39</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <f t="shared" si="0"/>
         <v>0.39100000000000001</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
         <f t="shared" si="1"/>
         <v>1.918158567774936</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <f t="shared" si="2"/>
         <v>3.836317135549872</v>
       </c>
       <c r="I6" s="1">
         <v>9.811223</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>0.45200000000000001</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>0.45100000000000001</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>0.45</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <f t="shared" si="0"/>
         <v>0.45100000000000001</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <f t="shared" si="1"/>
         <v>2.2172949002217295</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <f t="shared" si="2"/>
         <v>4.434589800443459</v>
       </c>
       <c r="I7" s="1">
         <v>9.8327930000000006</v>
       </c>
-      <c r="J7" s="55"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -5069,97 +5618,97 @@
       <c r="E8" s="1">
         <v>0.54910000000000003</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <f t="shared" si="0"/>
         <v>0.55463333333333331</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <f t="shared" si="1"/>
         <v>2.7044894524911354</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <f t="shared" si="2"/>
         <v>5.4089789049822707</v>
       </c>
       <c r="I8" s="1">
         <v>9.774661</v>
       </c>
-      <c r="J8" s="56"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="38"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="41"/>
     </row>
     <row r="15" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J15" s="39"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
     </row>
     <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="44"/>
     </row>
     <row r="17" spans="10:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J17" s="42" t="s">
+      <c r="J17" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="47"/>
     </row>
     <row r="18" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J18" s="42"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="44"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="47"/>
     </row>
     <row r="19" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="42"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="44"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="47"/>
     </row>
     <row r="20" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J20" s="45"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="47"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5177,35 +5726,257 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E211D4-4E51-4050-8FDC-C5145DCB4175}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="4" max="11" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
     </row>
+    <row r="2" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="64"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="61">
+        <v>0.52</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="18">
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.6709000000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.6661999999999999</v>
+      </c>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="61">
+        <v>0.02</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.2065999999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.1960999999999999</v>
+      </c>
+      <c r="G4" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+    </row>
+    <row r="5" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="61">
+        <v>0.92</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="18">
+        <v>1.79</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1.79</v>
+      </c>
+      <c r="G5" s="18">
+        <v>1.77</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+    </row>
+    <row r="6" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="61">
+        <v>0.36</v>
+      </c>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+    </row>
+    <row r="7" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="61">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="66"/>
+      <c r="G7" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="66"/>
+      <c r="J7" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="66"/>
+    </row>
+    <row r="8" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="61">
+        <v>1.84</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="62">
+        <v>1.6717</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="62">
+        <v>1.2009000000000001</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="62">
+        <v>1.7833000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="62">
+        <v>0.2863</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="62">
+        <v>0.55469999999999997</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="62">
+        <v>0.25159999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="62">
+        <v>0.21329999999999999</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="62">
+        <v>0.42649999999999999</v>
+      </c>
+      <c r="J10" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="62">
+        <v>0.21329999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="63">
+        <v>0.34</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="63">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+  <mergeCells count="4">
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -5217,7 +5988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9539C81-82B6-45CB-A056-2EC90B7C30A0}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -5229,257 +6000,257 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
     </row>
     <row r="4" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>1.4676</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>1.4705999999999999</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>1.4693000000000001</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>0.556917</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>0.40139000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>0.96840000000000004</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>0.97640000000000005</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>0.97009999999999996</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>1.0628120000000001</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>0.40792</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>0.7984</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>0.80100000000000005</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>0.79679999999999995</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="32">
         <v>1.5625</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>0.40544999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I8" s="6"/>
-      <c r="J8" s="27" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I9" s="12"/>
-      <c r="J9" s="28" t="s">
+      <c r="I9" s="11"/>
+      <c r="J9" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="I10" s="48" t="s">
+      <c r="B10" s="22"/>
+      <c r="I10" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="24">
+      <c r="J10" s="56"/>
+      <c r="K10" s="23">
         <v>1E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/PhysicsExperiments.xlsx
+++ b/PhysicsExperiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\PhysicsMechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0F4D5E-91FF-4B7A-9010-BB700849B7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE06502-3D77-491C-9AF3-E4FB0DB42977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment_1" sheetId="1" r:id="rId1"/>
@@ -762,6 +762,478 @@
   </si>
   <si>
     <r>
+      <t>ცდა 1
+t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (წმ)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ცდა 2
+t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (წმ)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ცდა 3
+t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (წმ)</t>
+    </r>
+  </si>
+  <si>
+    <t>20-900
+(გრ)</t>
+  </si>
+  <si>
+    <t>40-880
+(გრ)</t>
+  </si>
+  <si>
+    <t>4-1840
+(გრ)</t>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <t>0.4 მ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D = </t>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1თეორიული</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2თეორიული</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3თეორიული</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">პასუხები:
 1) აშკარად ჩანს;
 2) ექსპერიმენტის ცდომილება არ აღემატება 0.1%-ს;
@@ -776,7 +1248,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">mg sinα = µmg cosα;
+      <t xml:space="preserve">f(x) = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>µmg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;
 </t>
     </r>
     <r>
@@ -853,478 +1346,6 @@
       </rPr>
       <t>;
 6) კი, როდესაც 2 სხეულის ზედაპირი თითქმის იდეალურად ბრტყელია/გაპრიალებულია, ხახუნის კოეფიციენტი ბევრად აღემატება 1-ს;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ცდა 1
-t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (წმ)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ცდა 2
-t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (წმ)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ცდა 3
-t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (წმ)</t>
-    </r>
-  </si>
-  <si>
-    <t>20-900
-(გრ)</t>
-  </si>
-  <si>
-    <t>40-880
-(გრ)</t>
-  </si>
-  <si>
-    <t>4-1840
-(გრ)</t>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =</t>
-    </r>
-  </si>
-  <si>
-    <t>0.4 მ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D = </t>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1თეორიული</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =</t>
-    </r>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>III</t>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2თეორიული</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3თეორიული</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =</t>
     </r>
   </si>
 </sst>
@@ -1339,7 +1360,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1467,6 +1488,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1686,6 +1714,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1743,6 +1788,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1751,29 +1802,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5196,7 +5224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EFAF04-10AE-472A-9F56-F1601CEB5CA6}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -5207,21 +5235,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
     </row>
     <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -5419,22 +5447,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
@@ -5461,13 +5489,13 @@
       <c r="I3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -5497,11 +5525,11 @@
       <c r="I4" s="1">
         <v>9.7893340000000002</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -5531,11 +5559,11 @@
       <c r="I5" s="1">
         <v>9.8269470000000005</v>
       </c>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -5565,11 +5593,11 @@
       <c r="I6" s="1">
         <v>9.811223</v>
       </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -5640,75 +5668,75 @@
       <c r="N8" s="33"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="41"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="48"/>
     </row>
     <row r="15" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="44"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="51"/>
     </row>
     <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J16" s="42"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="51"/>
     </row>
     <row r="17" spans="10:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="47"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="54"/>
     </row>
     <row r="18" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J18" s="45"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="47"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="54"/>
     </row>
     <row r="19" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="45"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="47"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="54"/>
     </row>
     <row r="20" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J20" s="48"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5740,54 +5768,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
       <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="60" t="s">
+      <c r="A2" s="37" t="s">
         <v>56</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="64"/>
+      <c r="H2" s="42"/>
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="61">
+      <c r="A3" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="39">
         <v>0.52</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="18">
         <v>1.6779999999999999</v>
@@ -5804,14 +5832,14 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="61">
+      <c r="A4" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="39">
         <v>0.02</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1">
         <v>1.2065999999999999</v>
@@ -5828,14 +5856,14 @@
       <c r="K4" s="33"/>
     </row>
     <row r="5" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="61">
+      <c r="A5" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="39">
         <v>0.92</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="18">
         <v>1.79</v>
@@ -5852,10 +5880,10 @@
       <c r="K5" s="33"/>
     </row>
     <row r="6" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="61">
+      <c r="A6" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="39">
         <v>0.36</v>
       </c>
       <c r="H6" s="33"/>
@@ -5864,108 +5892,108 @@
       <c r="K6" s="33"/>
     </row>
     <row r="7" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="61">
+      <c r="A7" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="39">
         <v>0.02</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="63"/>
+      <c r="G7" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="G7" s="65" t="s">
+      <c r="H7" s="63"/>
+      <c r="J7" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="J7" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="66"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="61">
+      <c r="A8" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="39">
         <v>1.84</v>
       </c>
-      <c r="D8" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="62">
+      <c r="D8" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="40">
         <v>1.6717</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="40">
+        <v>1.2009000000000001</v>
+      </c>
+      <c r="J8" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="62">
-        <v>1.2009000000000001</v>
-      </c>
-      <c r="J8" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="62">
+      <c r="K8" s="40">
         <v>1.7833000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="62">
+      <c r="D9" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="40">
         <v>0.2863</v>
       </c>
-      <c r="G9" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="62">
+      <c r="G9" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="40">
         <v>0.55469999999999997</v>
       </c>
-      <c r="J9" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="62">
+      <c r="J9" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="40">
         <v>0.25159999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="62">
+      <c r="D10" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="40">
         <v>0.21329999999999999</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="40">
+        <v>0.42649999999999999</v>
+      </c>
+      <c r="J10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="62">
-        <v>0.42649999999999999</v>
-      </c>
-      <c r="J10" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="62">
+      <c r="K10" s="40">
         <v>0.21329999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="41">
         <v>0.34</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="41">
         <v>0.3</v>
       </c>
-      <c r="J11" s="58" t="s">
+      <c r="J11" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="63">
+      <c r="K11" s="41">
         <v>0.18</v>
       </c>
     </row>
@@ -5988,8 +6016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9539C81-82B6-45CB-A056-2EC90B7C30A0}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6000,20 +6028,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
       <c r="M1" s="21"/>
       <c r="N1" s="21"/>
       <c r="O1" s="21"/>
@@ -6116,141 +6144,141 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="56"/>
+      <c r="J10" s="65"/>
       <c r="K10" s="23">
         <v>1E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
+      <c r="A11" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/PhysicsExperiments.xlsx
+++ b/PhysicsExperiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\PhysicsMechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE06502-3D77-491C-9AF3-E4FB0DB42977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6D68F0-B625-46CA-A176-7EC6515A9C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
   </bookViews>
@@ -634,52 +634,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>k</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ხახუნის 
-კოეფიციენტი</t>
-    </r>
-  </si>
-  <si>
     <t>საწყისი ოწნა:</t>
   </si>
   <si>
@@ -757,10 +711,6 @@
 </t>
   </si>
   <si>
-    <t>3) როცა წინაღობის ძალა g-ს გაუტოლდება;
-4) ერთდროულად;</t>
-  </si>
-  <si>
     <r>
       <t>ცდა 1
 t</t>
@@ -1346,6 +1296,56 @@
       </rPr>
       <t>;
 6) კი, როდესაც 2 სხეულის ზედაპირი თითქმის იდეალურად ბრტყელია/გაპრიალებულია, ხახუნის კოეფიციენტი ბევრად აღემატება 1-ს;</t>
+    </r>
+  </si>
+  <si>
+    <t>3) როცა წინაღობის ძალა mg-ს გაუტოლდება;
+4) ერთდროულად;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>µ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ხახუნის 
+კოეფიციენტი</t>
     </r>
   </si>
 </sst>
@@ -1715,9 +1715,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1730,6 +1727,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4541,10 +4541,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409812</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257412</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1017843" cy="396327"/>
     <xdr:sp macro="" textlink="">
@@ -4560,7 +4560,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7182087" y="1009650"/>
+          <a:off x="6562962" y="942975"/>
           <a:ext cx="1017843" cy="396327"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4622,10 +4622,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>438150</xdr:rowOff>
+      <xdr:rowOff>371475</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1114425" cy="428625"/>
     <xdr:sp macro="" textlink="">
@@ -4641,7 +4641,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7115174" y="1438275"/>
+          <a:off x="6553199" y="1371600"/>
           <a:ext cx="1114425" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4752,15 +4752,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>638175</xdr:rowOff>
+      <xdr:rowOff>457200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
+      <xdr:colOff>600076</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>361950</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4775,7 +4775,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6362700" y="2371725"/>
+          <a:off x="6543675" y="2190750"/>
           <a:ext cx="2657476" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4844,16 +4844,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>533400</xdr:rowOff>
+      <xdr:rowOff>438150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4868,7 +4868,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6838950" y="1905000"/>
+          <a:off x="6543675" y="1809750"/>
           <a:ext cx="1600200" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5225,7 +5225,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5338,7 +5338,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="28"/>
       <c r="L6" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M6" s="30">
         <f>(M3+M4)</f>
@@ -5358,7 +5358,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
       <c r="L7" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="3">
         <f>(M3*M4)</f>
@@ -5438,7 +5438,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="J9" sqref="J9:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5490,7 +5490,7 @@
         <v>22</v>
       </c>
       <c r="J3" s="60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3" s="61"/>
       <c r="L3" s="61"/>
@@ -5669,7 +5669,7 @@
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J9" s="44" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="K9" s="45"/>
       <c r="L9" s="45"/>
@@ -5757,7 +5757,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5786,36 +5786,36 @@
       <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>55</v>
+      <c r="A2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>53</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="42"/>
+      <c r="H2" s="41"/>
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="39">
+      <c r="A3" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="38">
         <v>0.52</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="18">
         <v>1.6779999999999999</v>
@@ -5832,14 +5832,14 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="39">
+      <c r="A4" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="38">
         <v>0.02</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1">
         <v>1.2065999999999999</v>
@@ -5856,14 +5856,14 @@
       <c r="K4" s="33"/>
     </row>
     <row r="5" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="39">
+      <c r="A5" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="38">
         <v>0.92</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="18">
         <v>1.79</v>
@@ -5880,10 +5880,10 @@
       <c r="K5" s="33"/>
     </row>
     <row r="6" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="39">
+      <c r="A6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="38">
         <v>0.36</v>
       </c>
       <c r="H6" s="33"/>
@@ -5892,108 +5892,108 @@
       <c r="K6" s="33"/>
     </row>
     <row r="7" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="39">
+      <c r="A7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="38">
         <v>0.02</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" s="63"/>
       <c r="G7" s="62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H7" s="63"/>
       <c r="J7" s="62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K7" s="63"/>
     </row>
     <row r="8" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="39">
+      <c r="A8" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="38">
         <v>1.84</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="40">
+      <c r="D8" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="39">
         <v>1.6717</v>
       </c>
-      <c r="G8" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="40">
+      <c r="G8" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="39">
         <v>1.2009000000000001</v>
       </c>
-      <c r="J8" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="40">
+      <c r="J8" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="39">
         <v>1.7833000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="40">
+      <c r="D9" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="39">
         <v>0.2863</v>
       </c>
-      <c r="G9" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="40">
+      <c r="G9" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="39">
         <v>0.55469999999999997</v>
       </c>
-      <c r="J9" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="40">
+      <c r="J9" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="39">
         <v>0.25159999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="40">
+      <c r="D10" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="39">
         <v>0.21329999999999999</v>
       </c>
-      <c r="G10" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="40">
+      <c r="G10" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="39">
         <v>0.42649999999999999</v>
       </c>
-      <c r="J10" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="40">
+      <c r="J10" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="39">
         <v>0.21329999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="41">
+      <c r="D11" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="40">
         <v>0.34</v>
       </c>
-      <c r="G11" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="41">
+      <c r="G11" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="40">
         <v>0.3</v>
       </c>
-      <c r="J11" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="41">
+      <c r="J11" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="40">
         <v>0.18</v>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -6017,7 +6017,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:L19"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6061,7 +6061,7 @@
         <v>32</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6106,7 +6106,7 @@
     </row>
     <row r="7" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="19">
         <v>0.7984</v>
@@ -6127,25 +6127,25 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I8" s="5"/>
       <c r="J8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="24" t="s">
         <v>34</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I9" s="11"/>
       <c r="J9" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="25" t="s">
         <v>36</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
       <c r="I10" s="64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="65"/>
       <c r="K10" s="23">
@@ -6154,7 +6154,7 @@
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="66"/>
       <c r="C11" s="66"/>
@@ -6287,7 +6287,7 @@
     <mergeCell ref="A11:L19"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PhysicsExperiments.xlsx
+++ b/PhysicsExperiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\PhysicsMechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6D68F0-B625-46CA-A176-7EC6515A9C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE75FDD-FFA0-4E07-B1C1-957E45E840B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>σ =</t>
   </si>
@@ -1183,170 +1183,80 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">პასუხები:
+    <t>3) როცა წინაღობის ძალა mg-ს გაუტოლდება;
+4) ერთდროულად;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>µ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ხახუნის 
+კოეფიციენტი</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k
+ხახუნის ძალა</t>
+    </r>
+  </si>
+  <si>
+    <t>პასუხები:
 1) აშკარად ჩანს;
 2) ექსპერიმენტის ცდომილება არ აღემატება 0.1%-ს;
-3) არ შეიცვლება ხახუნის კოეფიციენტი,  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">f(x) = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>µmg</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4) ამის შედეგად ცდომილება გაიზრდება;
-5) µ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> არის მაქსიმალური მნიშვნელობა, µ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; µ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;
+3) არ შეიცვლება ხახუნის კოეფიციენტი,  f(x) = µmg;
+4) ამის შედეგად ცდომილება გაიზრდება;
+5) µs არის მაქსიმალური მნიშვნელობა, µs &gt; µk;
 6) კი, როდესაც 2 სხეულის ზედაპირი თითქმის იდეალურად ბრტყელია/გაპრიალებულია, ხახუნის კოეფიციენტი ბევრად აღემატება 1-ს;</t>
-    </r>
-  </si>
-  <si>
-    <t>3) როცა წინაღობის ძალა mg-ს გაუტოლდება;
-4) ერთდროულად;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>µ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>k</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ხახუნის 
-კოეფიციენტი</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -1360,7 +1270,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1488,13 +1398,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1649,7 +1552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1688,14 +1591,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1802,6 +1697,20 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4541,12 +4450,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>257412</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>27546</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1017843" cy="396327"/>
+    <xdr:ext cx="925125" cy="362535"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
@@ -4560,8 +4469,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6562962" y="942975"/>
-          <a:ext cx="1017843" cy="396327"/>
+          <a:off x="7123671" y="1247775"/>
+          <a:ext cx="925125" cy="362535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4600,19 +4509,19 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800"/>
+            <a:rPr lang="en-US" sz="1600"/>
             <a:t>F</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ka-GE" sz="1800" baseline="-25000"/>
+            <a:rPr lang="ka-GE" sz="1600" baseline="-25000"/>
             <a:t>ხახ</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ka-GE" sz="1800"/>
+            <a:rPr lang="ka-GE" sz="1600"/>
             <a:t> = µ</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1800"/>
+            <a:rPr lang="en-US" sz="1600"/>
             <a:t>N</a:t>
           </a:r>
         </a:p>
@@ -4622,12 +4531,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
+      <xdr:rowOff>609600</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1114425" cy="428625"/>
+    <xdr:ext cx="933451" cy="428625"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="TextBox 2">
@@ -4641,8 +4550,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6553199" y="1371600"/>
-          <a:ext cx="1114425" cy="428625"/>
+          <a:off x="7124699" y="1609725"/>
+          <a:ext cx="933451" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4681,7 +4590,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4693,7 +4602,7 @@
             <a:t>F</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ka-GE" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+            <a:rPr lang="ka-GE" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4705,7 +4614,7 @@
             <a:t>სრ</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ka-GE" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="ka-GE" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4717,7 +4626,7 @@
             <a:t> = µ</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4729,7 +4638,7 @@
             <a:t>k</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4741,7 +4650,7 @@
             <a:t>N</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1800"/>
+            <a:rPr lang="en-US" sz="1600"/>
             <a:t> </a:t>
           </a:r>
         </a:p>
@@ -4751,16 +4660,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>457200</xdr:rowOff>
+      <xdr:rowOff>685800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4775,8 +4684,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6543675" y="2190750"/>
-          <a:ext cx="2657476" cy="457200"/>
+          <a:off x="7115175" y="2419350"/>
+          <a:ext cx="2219325" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4813,30 +4722,30 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800"/>
+            <a:rPr lang="en-US" sz="1500"/>
             <a:t>F</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="30000"/>
+            <a:rPr lang="en-US" sz="1500" baseline="30000"/>
             <a:t>max</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1800"/>
+            <a:rPr lang="en-US" sz="1500"/>
             <a:t> = mg sin</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="el-GR" sz="1800"/>
+            <a:rPr lang="el-GR" sz="1500"/>
             <a:t>α = µ</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1800"/>
+            <a:rPr lang="en-US" sz="1500"/>
             <a:t>mg cos</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="el-GR" sz="1800"/>
+            <a:rPr lang="el-GR" sz="1500"/>
             <a:t>α</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1800"/>
+          <a:endParaRPr lang="en-US" sz="1500"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4844,16 +4753,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>314325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>438150</xdr:rowOff>
+      <xdr:rowOff>676275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4868,8 +4777,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6543675" y="1809750"/>
-          <a:ext cx="1600200" cy="361950"/>
+          <a:off x="7115175" y="2047875"/>
+          <a:ext cx="1352550" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4906,15 +4815,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800"/>
+            <a:rPr lang="en-US" sz="1600"/>
             <a:t>ma = mg - µ</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="-25000"/>
+            <a:rPr lang="en-US" sz="1600" baseline="-25000"/>
             <a:t>k</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1800"/>
+            <a:rPr lang="en-US" sz="1600"/>
             <a:t>N</a:t>
           </a:r>
         </a:p>
@@ -5235,21 +5144,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -5336,11 +5245,11 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="29" t="s">
+      <c r="K6" s="24"/>
+      <c r="L6" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="26">
         <f>(M3+M4)</f>
         <v>2.1579990564646669</v>
       </c>
@@ -5357,7 +5266,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="27" t="s">
         <v>39</v>
       </c>
       <c r="M7" s="3">
@@ -5447,22 +5356,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
@@ -5489,13 +5398,13 @@
       <c r="I3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -5525,11 +5434,11 @@
       <c r="I4" s="1">
         <v>9.7893340000000002</v>
       </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -5559,11 +5468,11 @@
       <c r="I5" s="1">
         <v>9.8269470000000005</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -5593,11 +5502,11 @@
       <c r="I6" s="1">
         <v>9.811223</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -5627,11 +5536,11 @@
       <c r="I7" s="1">
         <v>9.8327930000000006</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -5661,82 +5570,82 @@
       <c r="I8" s="1">
         <v>9.774661</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J9" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
+      <c r="J9" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J14" s="46" t="s">
+      <c r="J14" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="48"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="44"/>
     </row>
     <row r="15" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J15" s="49"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="51"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="47"/>
     </row>
     <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J16" s="49"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="51"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="47"/>
     </row>
     <row r="17" spans="10:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J17" s="52" t="s">
+      <c r="J17" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="54"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="50"/>
     </row>
     <row r="18" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="54"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="50"/>
     </row>
     <row r="19" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="54"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="50"/>
     </row>
     <row r="20" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="57"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5768,28 +5677,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
       <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="33" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="1"/>
@@ -5802,16 +5711,16 @@
       <c r="G2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="34">
         <v>0.52</v>
       </c>
       <c r="D3" s="16" t="s">
@@ -5826,16 +5735,16 @@
       <c r="G3" s="1">
         <v>1.6661999999999999</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="34">
         <v>0.02</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -5850,16 +5759,16 @@
       <c r="G4" s="18">
         <v>1.2</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="34">
         <v>0.92</v>
       </c>
       <c r="D5" s="16" t="s">
@@ -5874,126 +5783,126 @@
       <c r="G5" s="18">
         <v>1.77</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="34">
         <v>0.36</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="34">
         <v>0.02</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="G7" s="62" t="s">
+      <c r="E7" s="59"/>
+      <c r="G7" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="J7" s="62" t="s">
+      <c r="H7" s="59"/>
+      <c r="J7" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="63"/>
+      <c r="K7" s="59"/>
     </row>
     <row r="8" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="34">
         <v>1.84</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="35">
         <v>1.6717</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="35">
         <v>1.2009000000000001</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="J8" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="35">
         <v>1.7833000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="35">
         <v>0.2863</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="35">
         <v>0.55469999999999997</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="J9" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="35">
         <v>0.25159999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="35">
         <v>0.21329999999999999</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="35">
         <v>0.42649999999999999</v>
       </c>
-      <c r="J10" s="42" t="s">
+      <c r="J10" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="35">
         <v>0.21329999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="36">
         <v>0.34</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="36">
         <v>0.3</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="J11" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="40">
+      <c r="K11" s="36">
         <v>0.18</v>
       </c>
     </row>
@@ -6014,39 +5923,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9539C81-82B6-45CB-A056-2EC90B7C30A0}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="1" max="1" width="0.42578125" customWidth="1"/>
+    <col min="2" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="21"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="21"/>
       <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
     </row>
-    <row r="4" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="16" t="s">
         <v>27</v>
@@ -6061,10 +5971,13 @@
         <v>32</v>
       </c>
       <c r="G4" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="63" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
         <v>30</v>
       </c>
@@ -6083,8 +5996,12 @@
       <c r="G5" s="19">
         <v>0.40139000000000002</v>
       </c>
+      <c r="H5" s="19">
+        <f>50*9.8*G5</f>
+        <v>196.68110000000004</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>31</v>
       </c>
@@ -6103,8 +6020,12 @@
       <c r="G6" s="19">
         <v>0.40792</v>
       </c>
+      <c r="H6" s="19">
+        <f>60*9.8*G6</f>
+        <v>239.85696000000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>40</v>
       </c>
@@ -6117,174 +6038,187 @@
       <c r="E7" s="19">
         <v>0.79679999999999995</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="28">
         <v>1.5625</v>
       </c>
       <c r="G7" s="19">
         <v>0.40544999999999998</v>
       </c>
+      <c r="H7" s="19">
+        <f>70*9.8*G7</f>
+        <v>278.13869999999997</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I8" s="5"/>
-      <c r="J8" s="26" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J8" s="64"/>
+      <c r="K8" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="L8" s="66" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I9" s="11"/>
-      <c r="J9" s="27" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J9" s="64"/>
+      <c r="K9" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="L9" s="66" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
-      <c r="I10" s="64" t="s">
+      <c r="J10" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="65"/>
-      <c r="K10" s="23">
+      <c r="K10" s="61"/>
+      <c r="L10" s="23">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="67"/>
+      <c r="B11" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="67"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="67"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="67"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="67"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="67"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="67"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="67"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="67"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="67"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="67"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="67"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="67"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="67"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="67"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="67"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B11:L19"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A11:L19"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/PhysicsExperiments.xlsx
+++ b/PhysicsExperiments.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\PhysicsMechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE75FDD-FFA0-4E07-B1C1-957E45E840B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4C4B4F-DEE7-496B-9FF7-B0444D9596E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Experiment_1" sheetId="1" r:id="rId1"/>
-    <sheet name="Experiment_2" sheetId="2" r:id="rId2"/>
-    <sheet name="Experiment_3" sheetId="3" r:id="rId3"/>
-    <sheet name="Experiment_4" sheetId="4" r:id="rId4"/>
+    <sheet name="Experiment_0" sheetId="1" r:id="rId1"/>
+    <sheet name="Experiment_1" sheetId="2" r:id="rId2"/>
+    <sheet name="Experiment_2" sheetId="3" r:id="rId3"/>
+    <sheet name="Experiment_3" sheetId="4" r:id="rId4"/>
+    <sheet name="Experiment_4" sheetId="5" r:id="rId5"/>
+    <sheet name="Experiment_5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,32 +61,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
   <si>
     <t>σ =</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ექსპერიმენტი I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-ცდომილება</t>
-    </r>
   </si>
   <si>
     <r>
@@ -399,30 +378,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ექსპერიმენტი II</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-თავისუფალი ვარდნა</t>
-    </r>
-  </si>
-  <si>
     <t>მანძილი
 (მეტრი)</t>
   </si>
@@ -539,54 +494,6 @@
   </si>
   <si>
     <t>ცდომილება: 0.04076%</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ექსპერიმენტი III</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-ნიუტონის მეორე კანონი</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ექსპერიმენტი IV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-ხახუნის კოეფიციენტი</t>
-    </r>
   </si>
   <si>
     <t>ცდა 1
@@ -1257,6 +1164,297 @@
 4) ამის შედეგად ცდომილება გაიზრდება;
 5) µs არის მაქსიმალური მნიშვნელობა, µs &gt; µk;
 6) კი, როდესაც 2 სხეულის ზედაპირი თითქმის იდეალურად ბრტყელია/გაპრიალებულია, ხახუნის კოეფიციენტი ბევრად აღემატება 1-ს;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ექსპერიმენტი 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ცდომილება</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ექსპერიმენტი I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+თავისუფალი ვარდნა</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ექსპერიმენტი II</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ნიუტონის მეორე კანონი</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ექსპერიმენტი III</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ხახუნის კოეფიციენტი</t>
+    </r>
+  </si>
+  <si>
+    <t>256.5 გრ</t>
+  </si>
+  <si>
+    <t>9.64 გრ</t>
+  </si>
+  <si>
+    <t>ცდა 1</t>
+  </si>
+  <si>
+    <t>ცდა 2</t>
+  </si>
+  <si>
+    <t>ცდა 3</t>
+  </si>
+  <si>
+    <t>ცდა 4</t>
+  </si>
+  <si>
+    <t>ცდა 5</t>
+  </si>
+  <si>
+    <t>ცდა 6</t>
+  </si>
+  <si>
+    <t>დრო (წმ)</t>
+  </si>
+  <si>
+    <t>ექსპერიმენტი ციფრული წამზომით</t>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>საშ</t>
+    </r>
+  </si>
+  <si>
+    <t>4.992 მ/წმ</t>
+  </si>
+  <si>
+    <t>სიჩქარე 
+V (მ/წმ)</t>
+  </si>
+  <si>
+    <t>გრადუსი
+θ (დახრა)</t>
+  </si>
+  <si>
+    <r>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>საშ</t>
+    </r>
+  </si>
+  <si>
+    <t>5.96°</t>
+  </si>
+  <si>
+    <t>6°</t>
+  </si>
+  <si>
+    <t>5.5°</t>
+  </si>
+  <si>
+    <t>5.8°</t>
+  </si>
+  <si>
+    <t>6.1°</t>
+  </si>
+  <si>
+    <t>28.7 სმ</t>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ბურთი</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ძელი</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ძელი</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ექსპერიმენტი IV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ბალისტიკური ქანქარა</t>
+    </r>
+  </si>
+  <si>
+    <t>ექსპერიმენტი ბალისტიკური ქანქარით</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ექსპერიმენტი IV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+idk</t>
+    </r>
+  </si>
+  <si>
+    <t>idk</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1468,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1394,6 +1592,15 @@
     <font>
       <b/>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1552,7 +1759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1626,6 +1833,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1698,19 +1919,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1945,7 +2174,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Experiment_2!$F$4:$F$8</c:f>
+              <c:f>Experiment_1!$F$4:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1969,7 +2198,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Experiment_2!$H$4:$H$8</c:f>
+              <c:f>Experiment_1!$H$4:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4834,6 +5063,1442 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC12FA9-6211-4D9A-82BE-28A04430159E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="47626" y="3124201"/>
+              <a:ext cx="2143124" cy="428624"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒗</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒎</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑴</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒎</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟐</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒈𝑳</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟏</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:func>
+                          <m:funcPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:funcPr>
+                          <m:fName>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐜𝐨𝐬</m:t>
+                            </m:r>
+                          </m:fName>
+                          <m:e>
+                            <m:r>
+                              <m:rPr>
+                                <m:nor/>
+                              </m:rPr>
+                              <a:rPr lang="el-GR" sz="1200" b="1" i="0">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>θ</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:func>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:rad>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC12FA9-6211-4D9A-82BE-28A04430159E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="47626" y="3124201"/>
+              <a:ext cx="2143124" cy="428624"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒗=(𝒎+𝑴)/𝒎 √(𝟐𝒈𝑳(𝟏−𝐜𝐨𝐬⁡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"θ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>))</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6297A1A0-DD0C-4E5A-B34B-1104FD639996}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="47625" y="3590926"/>
+              <a:ext cx="1314450" cy="476250"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝒗</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝟎</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝒗</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝒇</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝒗</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ka-GE" sz="1200" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>საშ</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝟕</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>.</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝟒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>%</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6297A1A0-DD0C-4E5A-B34B-1104FD639996}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="47625" y="3590926"/>
+              <a:ext cx="1314450" cy="476250"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(𝒗_𝟎−𝒗_𝒇)/𝒗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>საშ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> =𝟕.𝟒%</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F9A9B1B-7CB4-40FE-AF0E-D520763C9644}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="47624" y="4095750"/>
+              <a:ext cx="1438276" cy="1085850"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒎</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝒗</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝟐</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟐</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝟎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>.</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝟏𝟏𝟕</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ka-GE" sz="1200" b="1"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝒎</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝒗</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝟐</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ka-GE" sz="1200" b="1" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>ექსპ</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝟐</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝟎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>.</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="ka-GE" sz="1200" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝟏𝟎𝟏</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F9A9B1B-7CB4-40FE-AF0E-D520763C9644}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="47624" y="4095750"/>
+              <a:ext cx="1438276" cy="1085850"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(𝒎𝒗^𝟐)/𝟐=𝟎.𝟏𝟏𝟕</a:t>
+              </a:r>
+              <a:endParaRPr lang="ka-GE" sz="1200" b="1"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝒎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝒗^𝟐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ექსპ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)/𝟐=𝟎.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝟏𝟎𝟏</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62CAD561-2EF0-4B26-84E5-31397829E91F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="47625" y="5210175"/>
+              <a:ext cx="1438276" cy="314325"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∆</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="ka-GE" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ka-GE" sz="1200" b="1" i="1">
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑬</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ka-GE" sz="1200" b="1" i="1">
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>პროც</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝟏𝟒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>.</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝟕</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>%</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62CAD561-2EF0-4B26-84E5-31397829E91F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="47625" y="5210175"/>
+              <a:ext cx="1438276" cy="314325"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑬</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="1" i="0">
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>პროც</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=𝟏𝟒.𝟕%</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5928183A-C03A-404F-B60A-7AFEE68654B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2552700" y="3633786"/>
+          <a:ext cx="6210300" cy="2605089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1200"/>
+            <a:t>2) მეორე მეგობარი არის სწორი, რადგან ენერგიის დანაკარგს არ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1200" baseline="0"/>
+            <a:t> ვითვალისწინებთ, მხოლოდ პოტენციური ენერგიის ცვლილებას აქვს მნიშვნელობა და მთავარია პირველი მწვერვალი იყოს უმაღლესი, რომ დანარჩენებზე ეყოს პოტენციური ენერგია;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ka-GE" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1200"/>
+            <a:t>3) არადრეკადია, რადგან ხახუნის შედეგად ენერგია</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1200" baseline="0"/>
+            <a:t> სითბურ ენერგიად გარდაიქმნება (წინააღმდეგ შემთხვევაში თვითმფრინავი არ გაჩერდება);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ka-GE" sz="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1200" baseline="0"/>
+            <a:t>4)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1200" baseline="0"/>
+            <a:t>    ა) ქვევიდან ზევით ტყორცნისას ენერგიის ნაწილი დაიხარჯა ჰორიზონტალური ენერგიის ცვლილებაში, ამიტომ სიჩქარე ნაკლები იქნება ვიდრე ჰორიზონტალურში;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1200" baseline="0"/>
+            <a:t>    ბ) თუ ორივე ფოტორელე აღიქვამს ბურთს და თან ვიცით, რომ თავისუფალი ფრენის დროს ჰორიზონტალური სიჩქარე არ იცვლება, მაშინ გავლენა არ ექვს;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5134,7 +6799,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5144,25 +6809,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="A1" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3">
         <v>2.1556999999999999</v>
@@ -5175,7 +6840,7 @@
     </row>
     <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>2.1499000000000001</v>
@@ -5186,7 +6851,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="L3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3" s="3">
         <f>(SUM(B2:B11)/COUNT(B2:B11))</f>
@@ -5195,7 +6860,7 @@
     </row>
     <row r="4" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>2.1492</v>
@@ -5215,7 +6880,7 @@
     </row>
     <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>2.1406000000000001</v>
@@ -5226,7 +6891,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="13"/>
       <c r="L5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" s="3">
         <f>M4/SQRT(COUNT(B2:B11))</f>
@@ -5235,7 +6900,7 @@
     </row>
     <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>2.1520999999999999</v>
@@ -5247,7 +6912,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="24"/>
       <c r="L6" s="25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M6" s="26">
         <f>(M3+M4)</f>
@@ -5256,7 +6921,7 @@
     </row>
     <row r="7" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4">
         <v>2.1429999999999998</v>
@@ -5267,7 +6932,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
       <c r="L7" s="27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M7" s="3">
         <f>(M3*M4)</f>
@@ -5276,7 +6941,7 @@
     </row>
     <row r="8" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4">
         <v>2.1150000000000002</v>
@@ -5291,7 +6956,7 @@
     </row>
     <row r="9" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3">
         <v>2.1555</v>
@@ -5305,7 +6970,7 @@
     </row>
     <row r="10" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3">
         <v>2.1478000000000002</v>
@@ -5319,7 +6984,7 @@
     </row>
     <row r="11" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3">
         <v>2.1111</v>
@@ -5347,7 +7012,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:N11"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5356,55 +7021,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
+      <c r="A1" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
+      <c r="J3" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -5434,11 +7099,11 @@
       <c r="I4" s="1">
         <v>9.7893340000000002</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -5468,11 +7133,11 @@
       <c r="I5" s="1">
         <v>9.8269470000000005</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -5502,11 +7167,11 @@
       <c r="I6" s="1">
         <v>9.811223</v>
       </c>
-      <c r="J6" s="56"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -5577,75 +7242,75 @@
       <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J9" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
+      <c r="J9" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J14" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44"/>
+      <c r="J14" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="50"/>
     </row>
     <row r="15" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J15" s="45"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="47"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="53"/>
     </row>
     <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J16" s="45"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="53"/>
     </row>
     <row r="17" spans="10:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J17" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="50"/>
+      <c r="J17" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="56"/>
     </row>
     <row r="18" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J18" s="48"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="50"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="56"/>
     </row>
     <row r="19" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="48"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="50"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="56"/>
     </row>
     <row r="20" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J20" s="51"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="53"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5666,7 +7331,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5677,39 +7342,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="A1" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
       <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H2" s="37"/>
       <c r="I2" s="29"/>
@@ -5718,13 +7383,13 @@
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B3" s="34">
         <v>0.52</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E3" s="18">
         <v>1.6779999999999999</v>
@@ -5742,13 +7407,13 @@
     </row>
     <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B4" s="34">
         <v>0.02</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1">
         <v>1.2065999999999999</v>
@@ -5766,13 +7431,13 @@
     </row>
     <row r="5" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5" s="34">
         <v>0.92</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E5" s="18">
         <v>1.79</v>
@@ -5790,7 +7455,7 @@
     </row>
     <row r="6" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6" s="34">
         <v>0.36</v>
@@ -5802,45 +7467,45 @@
     </row>
     <row r="7" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B7" s="34">
         <v>0.02</v>
       </c>
-      <c r="D7" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="59"/>
-      <c r="G7" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="59"/>
-      <c r="J7" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="59"/>
+      <c r="D7" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="65"/>
+      <c r="G7" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="65"/>
+      <c r="J7" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="65"/>
     </row>
     <row r="8" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B8" s="34">
         <v>1.84</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E8" s="35">
         <v>1.6717</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H8" s="35">
         <v>1.2009000000000001</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K8" s="35">
         <v>1.7833000000000001</v>
@@ -5848,19 +7513,19 @@
     </row>
     <row r="9" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D9" s="38" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E9" s="35">
         <v>0.2863</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H9" s="35">
         <v>0.55469999999999997</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K9" s="35">
         <v>0.25159999999999999</v>
@@ -5868,19 +7533,19 @@
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D10" s="38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E10" s="35">
         <v>0.21329999999999999</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H10" s="35">
         <v>0.42649999999999999</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K10" s="35">
         <v>0.21329999999999999</v>
@@ -5888,19 +7553,19 @@
     </row>
     <row r="11" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E11" s="36">
         <v>0.34</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H11" s="36">
         <v>0.3</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K11" s="36">
         <v>0.18</v>
@@ -5925,8 +7590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9539C81-82B6-45CB-A056-2EC90B7C30A0}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5937,21 +7602,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="68"/>
+      <c r="A1" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="44"/>
       <c r="N1" s="21"/>
       <c r="O1" s="21"/>
       <c r="P1" s="21"/>
@@ -5959,27 +7624,27 @@
     <row r="4" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="G4" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="63" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="19">
         <v>1.4676</v>
@@ -6003,7 +7668,7 @@
     </row>
     <row r="6" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" s="19">
         <v>0.96840000000000004</v>
@@ -6027,7 +7692,7 @@
     </row>
     <row r="7" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C7" s="19">
         <v>0.7984</v>
@@ -6050,169 +7715,169 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J8" s="64"/>
-      <c r="K8" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="66" t="s">
-        <v>34</v>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J9" s="64"/>
-      <c r="K9" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="66" t="s">
-        <v>36</v>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
-      <c r="J10" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="61"/>
+      <c r="J10" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="67"/>
       <c r="L10" s="23">
         <v>1E-3</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="67"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="43"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="67"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="43"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="67"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="43"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="67"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="43"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="67"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="43"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="67"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="43"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="67"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="43"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="67"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="43"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="67"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6224,4 +7889,257 @@
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1606FDA-2A00-4E45-A273-11FFE99BEEE9}">
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" s="21" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD34F534-8F62-43AA-9740-81595D0D0225}">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+    </row>
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="70">
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="70">
+        <v>0.02</v>
+      </c>
+      <c r="G5" s="70">
+        <v>0.02</v>
+      </c>
+      <c r="H5" s="70">
+        <v>2.01E-2</v>
+      </c>
+      <c r="I5" s="70">
+        <v>0.02</v>
+      </c>
+      <c r="J5" s="70">
+        <v>2.01E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="71">
+        <v>5</v>
+      </c>
+      <c r="F6" s="71">
+        <v>5</v>
+      </c>
+      <c r="G6" s="71">
+        <v>5</v>
+      </c>
+      <c r="H6" s="71">
+        <v>4.9749999999999996</v>
+      </c>
+      <c r="I6" s="71">
+        <v>5</v>
+      </c>
+      <c r="J6" s="71">
+        <v>4.9749999999999996</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D8" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+      <c r="E9" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D8:J8"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/PhysicsExperiments.xlsx
+++ b/PhysicsExperiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\PhysicsMechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4C4B4F-DEE7-496B-9FF7-B0444D9596E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60CD5F3-D548-4D2F-99DD-2A43A84A287F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment_0" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
   <si>
     <t>σ =</t>
   </si>
@@ -1455,6 +1455,9 @@
   </si>
   <si>
     <t>idk</t>
+  </si>
+  <si>
+    <t>vinmes tu gaqvt momweret</t>
   </si>
 </sst>
 </file>
@@ -1847,6 +1850,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1918,25 +1940,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5078,8 +5081,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -5275,7 +5278,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -5382,8 +5385,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -5571,7 +5574,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -5660,8 +5663,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -5816,7 +5819,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5829,7 +5832,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5858,7 +5861,7 @@
                                       <a:schemeClr val="dk1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -5871,7 +5874,7 @@
                                       <a:schemeClr val="dk1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -5885,7 +5888,7 @@
                                       <a:schemeClr val="dk1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -5917,7 +5920,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5931,7 +5934,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5943,7 +5946,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5955,7 +5958,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5967,7 +5970,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5981,7 +5984,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -6150,8 +6153,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -6225,6 +6228,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="ka-GE" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -6241,6 +6245,7 @@
                       <m:sub>
                         <m:r>
                           <a:rPr lang="ka-GE" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>პროც</m:t>
@@ -6290,7 +6295,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -6809,21 +6814,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -7021,22 +7026,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
@@ -7063,13 +7068,13 @@
       <c r="I3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -7099,11 +7104,11 @@
       <c r="I4" s="1">
         <v>9.7893340000000002</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -7133,11 +7138,11 @@
       <c r="I5" s="1">
         <v>9.8269470000000005</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -7167,11 +7172,11 @@
       <c r="I6" s="1">
         <v>9.811223</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -7242,75 +7247,75 @@
       <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J14" s="48" t="s">
+      <c r="J14" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="50"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="57"/>
     </row>
     <row r="15" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="53"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="60"/>
     </row>
     <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="53"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="60"/>
     </row>
     <row r="17" spans="10:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J17" s="54" t="s">
+      <c r="J17" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="56"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="63"/>
     </row>
     <row r="18" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J18" s="54"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="56"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="63"/>
     </row>
     <row r="19" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="54"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="56"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="63"/>
     </row>
     <row r="20" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J20" s="57"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="59"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7342,19 +7347,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
       <c r="N1" s="21"/>
@@ -7472,18 +7477,18 @@
       <c r="B7" s="34">
         <v>0.02</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="G7" s="64" t="s">
+      <c r="E7" s="72"/>
+      <c r="G7" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="65"/>
-      <c r="J7" s="64" t="s">
+      <c r="H7" s="72"/>
+      <c r="J7" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="65"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
@@ -7602,20 +7607,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
       <c r="M1" s="44"/>
       <c r="N1" s="21"/>
       <c r="O1" s="21"/>
@@ -7734,149 +7739,149 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
-      <c r="J10" s="66" t="s">
+      <c r="J10" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="67"/>
+      <c r="K10" s="74"/>
       <c r="L10" s="23">
         <v>1E-3</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
       <c r="M11" s="43"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
       <c r="M12" s="43"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="43"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
       <c r="M13" s="43"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
       <c r="M14" s="43"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
       <c r="M15" s="43"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
       <c r="M16" s="43"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
       <c r="M17" s="43"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
       <c r="M18" s="43"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
       <c r="M19" s="43"/>
     </row>
   </sheetData>
@@ -7893,36 +7898,41 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1606FDA-2A00-4E45-A273-11FFE99BEEE9}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" s="21" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -7938,7 +7948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD34F534-8F62-43AA-9740-81595D0D0225}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -7950,29 +7960,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="50" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="76" t="s">
@@ -7986,10 +7996,10 @@
       <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="50" t="s">
         <v>71</v>
       </c>
       <c r="D4" s="1"/>
@@ -8013,31 +8023,31 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="50" t="s">
         <v>91</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="70">
+      <c r="E5" s="46">
         <v>0.02</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="46">
         <v>0.02</v>
       </c>
-      <c r="G5" s="70">
+      <c r="G5" s="46">
         <v>0.02</v>
       </c>
-      <c r="H5" s="70">
+      <c r="H5" s="46">
         <v>2.01E-2</v>
       </c>
-      <c r="I5" s="70">
+      <c r="I5" s="46">
         <v>0.02</v>
       </c>
-      <c r="J5" s="70">
+      <c r="J5" s="46">
         <v>2.01E-2</v>
       </c>
     </row>
@@ -8045,28 +8055,28 @@
       <c r="D6" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="47">
         <v>5</v>
       </c>
-      <c r="F6" s="71">
+      <c r="F6" s="47">
         <v>5</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="47">
         <v>5</v>
       </c>
-      <c r="H6" s="71">
+      <c r="H6" s="47">
         <v>4.9749999999999996</v>
       </c>
-      <c r="I6" s="71">
+      <c r="I6" s="47">
         <v>5</v>
       </c>
-      <c r="J6" s="71">
+      <c r="J6" s="47">
         <v>4.9749999999999996</v>
       </c>
       <c r="L6" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="M6" s="75" t="s">
+      <c r="M6" s="51" t="s">
         <v>82</v>
       </c>
     </row>
@@ -8083,22 +8093,22 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="69" t="s">
+      <c r="G9" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="69" t="s">
+      <c r="H9" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="69" t="s">
+      <c r="I9" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="69" t="s">
+      <c r="J9" s="45" t="s">
         <v>78</v>
       </c>
     </row>
@@ -8106,28 +8116,28 @@
       <c r="D10" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="72" t="s">
+      <c r="G10" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="72" t="s">
+      <c r="H10" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="72" t="s">
+      <c r="I10" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="J10" s="72" t="s">
+      <c r="J10" s="48" t="s">
         <v>90</v>
       </c>
       <c r="L10" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="M10" s="75" t="s">
+      <c r="M10" s="51" t="s">
         <v>86</v>
       </c>
     </row>

--- a/PhysicsExperiments.xlsx
+++ b/PhysicsExperiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\PhysicsMechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60CD5F3-D548-4D2F-99DD-2A43A84A287F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85C2079-E8DC-4D8E-8BED-5B1E5A210B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment_0" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
   <si>
     <t>σ =</t>
   </si>
@@ -1458,6 +1458,44 @@
   </si>
   <si>
     <t>vinmes tu gaqvt momweret</t>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>საშ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1762,7 +1800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1800,7 +1838,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1943,6 +1980,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6405,7 +6451,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6421,7 +6467,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2552700" y="3633786"/>
-          <a:ext cx="6210300" cy="2605089"/>
+          <a:ext cx="6210300" cy="2700339"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6452,6 +6498,13 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1200" b="1"/>
+            <a:t>პასუხები:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+        </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="ka-GE" sz="1200"/>
@@ -6814,21 +6867,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -6915,11 +6968,11 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25" t="s">
+      <c r="K6" s="23"/>
+      <c r="L6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="25">
         <f>(M3+M4)</f>
         <v>2.1579990564646669</v>
       </c>
@@ -6936,7 +6989,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="26" t="s">
         <v>35</v>
       </c>
       <c r="M7" s="3">
@@ -7026,22 +7079,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
@@ -7068,13 +7121,13 @@
       <c r="I3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="69" t="s">
+      <c r="J3" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -7104,11 +7157,11 @@
       <c r="I4" s="1">
         <v>9.7893340000000002</v>
       </c>
-      <c r="J4" s="69"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -7138,11 +7191,11 @@
       <c r="I5" s="1">
         <v>9.8269470000000005</v>
       </c>
-      <c r="J5" s="69"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -7172,11 +7225,11 @@
       <c r="I6" s="1">
         <v>9.811223</v>
       </c>
-      <c r="J6" s="69"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -7206,11 +7259,11 @@
       <c r="I7" s="1">
         <v>9.8327930000000006</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -7240,82 +7293,82 @@
       <c r="I8" s="1">
         <v>9.774661</v>
       </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J14" s="55" t="s">
+      <c r="J14" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="57"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="56"/>
     </row>
     <row r="15" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="60"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="59"/>
     </row>
     <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J16" s="58"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="60"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="59"/>
     </row>
     <row r="17" spans="10:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J17" s="61" t="s">
+      <c r="J17" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="63"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="62"/>
     </row>
     <row r="18" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J18" s="61"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="63"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
     </row>
     <row r="19" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="61"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="63"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="62"/>
     </row>
     <row r="20" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J20" s="64"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="66"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7347,28 +7400,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
       <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="1"/>
@@ -7381,16 +7434,16 @@
       <c r="G2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="33">
         <v>0.52</v>
       </c>
       <c r="D3" s="16" t="s">
@@ -7405,16 +7458,16 @@
       <c r="G3" s="1">
         <v>1.6661999999999999</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="33">
         <v>0.02</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -7429,16 +7482,16 @@
       <c r="G4" s="18">
         <v>1.2</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="33">
         <v>0.92</v>
       </c>
       <c r="D5" s="16" t="s">
@@ -7453,126 +7506,126 @@
       <c r="G5" s="18">
         <v>1.77</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <v>0.36</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="33">
         <v>0.02</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="G7" s="71" t="s">
+      <c r="E7" s="71"/>
+      <c r="G7" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="72"/>
-      <c r="J7" s="71" t="s">
+      <c r="H7" s="71"/>
+      <c r="J7" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="72"/>
+      <c r="K7" s="71"/>
     </row>
     <row r="8" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="33">
         <v>1.84</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="34">
         <v>1.6717</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="34">
         <v>1.2009000000000001</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="34">
         <v>1.7833000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="34">
         <v>0.2863</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="34">
         <v>0.55469999999999997</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="34">
         <v>0.25159999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="34">
         <v>0.21329999999999999</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="34">
         <v>0.42649999999999999</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="34">
         <v>0.21329999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <v>0.34</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="35">
         <v>0.3</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="35">
         <v>0.18</v>
       </c>
     </row>
@@ -7596,7 +7649,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7607,21 +7660,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="44"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="43"/>
       <c r="N1" s="21"/>
       <c r="O1" s="21"/>
       <c r="P1" s="21"/>
@@ -7643,7 +7696,7 @@
       <c r="G4" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="38" t="s">
         <v>65</v>
       </c>
     </row>
@@ -7666,7 +7719,7 @@
       <c r="G5" s="19">
         <v>0.40139000000000002</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="76">
         <f>50*9.8*G5</f>
         <v>196.68110000000004</v>
       </c>
@@ -7690,7 +7743,7 @@
       <c r="G6" s="19">
         <v>0.40792</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="76">
         <f>60*9.8*G6</f>
         <v>239.85696000000002</v>
       </c>
@@ -7708,181 +7761,188 @@
       <c r="E7" s="19">
         <v>0.79679999999999995</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="27">
         <v>1.5625</v>
       </c>
       <c r="G7" s="19">
         <v>0.40544999999999998</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="76">
         <f>70*9.8*G7</f>
         <v>278.13869999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J8" s="40"/>
-      <c r="K8" s="41" t="s">
+    <row r="8" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="77">
+        <f>(AVERAGE(H5:H7))</f>
+        <v>238.22558666666669</v>
+      </c>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="42" t="s">
+      <c r="L8" s="41" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J9" s="40"/>
-      <c r="K9" s="41" t="s">
+      <c r="J9" s="39"/>
+      <c r="K9" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="42" t="s">
+      <c r="L9" s="41" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
-      <c r="J10" s="73" t="s">
+      <c r="J10" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="74"/>
-      <c r="L10" s="23">
+      <c r="K10" s="73"/>
+      <c r="L10" s="78">
         <v>1E-3</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="75" t="s">
+      <c r="A11" s="42"/>
+      <c r="B11" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="43"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="42"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="43"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="42"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="43"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="43"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="42"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="43"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="42"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="43"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="42"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="43"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="42"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="43"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="42"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="43"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7900,30 +7960,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1606FDA-2A00-4E45-A273-11FFE99BEEE9}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" s="21" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
@@ -7948,8 +8008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD34F534-8F62-43AA-9740-81595D0D0225}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7960,46 +8020,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="21"/>
     </row>
     <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>71</v>
       </c>
       <c r="D4" s="1"/>
@@ -8023,31 +8083,31 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>91</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="45">
         <v>0.02</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="45">
         <v>0.02</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="45">
         <v>0.02</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="45">
         <v>2.01E-2</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="45">
         <v>0.02</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="45">
         <v>2.01E-2</v>
       </c>
     </row>
@@ -8055,60 +8115,60 @@
       <c r="D6" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="46">
         <v>5</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="46">
         <v>5</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="46">
         <v>5</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="46">
         <v>4.9749999999999996</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="46">
         <v>5</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J6" s="46">
         <v>4.9749999999999996</v>
       </c>
       <c r="L6" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="M6" s="51" t="s">
+      <c r="M6" s="50" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="44" t="s">
         <v>78</v>
       </c>
     </row>
@@ -8116,36 +8176,36 @@
       <c r="D10" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="J10" s="48" t="s">
+      <c r="J10" s="47" t="s">
         <v>90</v>
       </c>
       <c r="L10" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="M10" s="51" t="s">
+      <c r="M10" s="50" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:O1"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="D8:J8"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PhysicsExperiments.xlsx
+++ b/PhysicsExperiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\PhysicsMechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85C2079-E8DC-4D8E-8BED-5B1E5A210B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B51611-4052-42B1-A71D-80918995281F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment_0" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Experiment_3" sheetId="4" r:id="rId4"/>
     <sheet name="Experiment_4" sheetId="5" r:id="rId5"/>
     <sheet name="Experiment_5" sheetId="6" r:id="rId6"/>
+    <sheet name="Experiment_6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
   <si>
     <t>σ =</t>
   </si>
@@ -508,12 +509,6 @@
 (წმ)</t>
   </si>
   <si>
-    <t>50 გრამი</t>
-  </si>
-  <si>
-    <t>60 გრამი</t>
-  </si>
-  <si>
     <r>
       <t>აჩქარება
 (მ/წმ</t>
@@ -541,9 +536,6 @@
     </r>
   </si>
   <si>
-    <t>საწყისი ოწნა:</t>
-  </si>
-  <si>
     <t>110გრ</t>
   </si>
   <si>
@@ -606,9 +598,6 @@
       </rPr>
       <t xml:space="preserve"> - σ =</t>
     </r>
-  </si>
-  <si>
-    <t>70 გრამი</t>
   </si>
   <si>
     <t xml:space="preserve">პასუხები:
@@ -1141,32 +1130,6 @@
   </si>
   <si>
     <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>k
-ხახუნის ძალა</t>
-    </r>
-  </si>
-  <si>
-    <t>პასუხები:
-1) აშკარად ჩანს;
-2) ექსპერიმენტის ცდომილება არ აღემატება 0.1%-ს;
-3) არ შეიცვლება ხახუნის კოეფიციენტი,  f(x) = µmg;
-4) ამის შედეგად ცდომილება გაიზრდება;
-5) µs არის მაქსიმალური მნიშვნელობა, µs &gt; µk;
-6) კი, როდესაც 2 სხეულის ზედაპირი თითქმის იდეალურად ბრტყელია/გაპრიალებულია, ხახუნის კოეფიციენტი ბევრად აღემატება 1-ს;</t>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="20"/>
         <color theme="1"/>
@@ -1291,22 +1254,6 @@
     <t>ექსპერიმენტი ციფრული წამზომით</t>
   </si>
   <si>
-    <r>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>საშ</t>
-    </r>
-  </si>
-  <si>
     <t>4.992 მ/წმ</t>
   </si>
   <si>
@@ -1316,22 +1263,6 @@
   <si>
     <t>გრადუსი
 θ (დახრა)</t>
-  </si>
-  <si>
-    <r>
-      <t>θ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>საშ</t>
-    </r>
   </si>
   <si>
     <t>5.96°</t>
@@ -1403,30 +1334,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ექსპერიმენტი IV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-ბალისტიკური ქანქარა</t>
-    </r>
-  </si>
-  <si>
     <t>ექსპერიმენტი ბალისტიკური ქანქარით</t>
   </si>
   <si>
@@ -1496,6 +1403,297 @@
       </rPr>
       <t xml:space="preserve"> =</t>
     </r>
+  </si>
+  <si>
+    <t>ძელაკის წონა</t>
+  </si>
+  <si>
+    <t>კგ</t>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ხახუნის ძალა (ნ)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ურიკისსაწყისი</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> წონა:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>საშ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>საშ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ექსპერიმენტი V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ბალისტიკური ქანქარა</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ექსპერიმენტი VI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+დრეკადი და არადრეკადი  დაჯახება</t>
+    </r>
+  </si>
+  <si>
+    <t>დრეკადი დაჯახება</t>
+  </si>
+  <si>
+    <t>0.40 მ</t>
+  </si>
+  <si>
+    <t>0.518 კგ</t>
+  </si>
+  <si>
+    <t>6.3 მ/წმ</t>
+  </si>
+  <si>
+    <t>5.7 მ/წმ</t>
+  </si>
+  <si>
+    <t>L =</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1b </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <t>დანაკარგი:</t>
+  </si>
+  <si>
+    <t>21.3 მ/წმ</t>
+  </si>
+  <si>
+    <t>16.7 მ/წმ</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1707,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1647,6 +1845,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1656,7 +1861,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1796,11 +2001,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1884,9 +2126,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1903,8 +2142,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1969,26 +2214,56 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4728,7 +5003,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>27546</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
@@ -4809,7 +5084,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>609600</xdr:rowOff>
@@ -4938,16 +5213,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>685800</xdr:rowOff>
+      <xdr:rowOff>542925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4962,8 +5237,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7115175" y="2419350"/>
-          <a:ext cx="2219325" cy="352425"/>
+          <a:off x="7019925" y="2447925"/>
+          <a:ext cx="2362200" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5031,16 +5306,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>676275</xdr:rowOff>
+      <xdr:rowOff>514350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5055,8 +5330,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7115175" y="2047875"/>
-          <a:ext cx="1352550" cy="361950"/>
+          <a:off x="7019925" y="2057400"/>
+          <a:ext cx="1495425" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5104,6 +5379,137 @@
             <a:rPr lang="en-US" sz="1600"/>
             <a:t>N</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CABDD73F-3801-4DF3-A003-83464EEB694E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="4410075"/>
+          <a:ext cx="7134225" cy="1847850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1200" b="1"/>
+            <a:t>პასუხები:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1200"/>
+            <a:t>1) აშკარად ჩანს;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1200"/>
+            <a:t>2) ექსპერიმენტის ცდომილება არ აღემატება 0.1%-ს;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1200"/>
+            <a:t>3) არ შეიცვლება ხახუნის კოეფიციენტი,  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>f(x) = µmg;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>4) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1200"/>
+            <a:t>ამის შედეგად ცდომილება გაიზრდება;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1200"/>
+            <a:t>5) µ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>s </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1200"/>
+            <a:t>არის მაქსიმალური მნიშვნელობა, µ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>s &gt; µk;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>6) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1200"/>
+            <a:t>კი, როდესაც 2 სხეულის ზედაპირი თითქმის იდეალურად ბრტყელია/გაპრიალებულია, ხახუნის კოეფიციენტი ბევრად აღემატება 1-ს;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6443,15 +6849,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6466,8 +6872,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2552700" y="3633786"/>
-          <a:ext cx="6210300" cy="2700339"/>
+          <a:off x="2524125" y="3290886"/>
+          <a:ext cx="6210300" cy="2862264"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6546,12 +6952,330 @@
         <a:p>
           <a:r>
             <a:rPr lang="ka-GE" sz="1200" baseline="0"/>
-            <a:t>    ბ) თუ ორივე ფოტორელე აღიქვამს ბურთს და თან ვიცით, რომ თავისუფალი ფრენის დროს ჰორიზონტალური სიჩქარე არ იცვლება, მაშინ გავლენა არ ექვს;</a:t>
+            <a:t>    ბ) თუ ორივე ფოტორელე აღიქვამს ბურთს და თან ვიცით, რომ თავისუფალი ფრენის დროს ჰორიზონტალური სიჩქარე არ იცვლება, მაშინ გავლენა არ აქვს;</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F392C407-A7E4-4E83-9FD7-13FF6D622DBE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5495924" y="1000126"/>
+              <a:ext cx="1981201" cy="514350"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="ka-GE" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>დანაკარგი: </m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="|"/>
+                        <m:endChr m:val="|"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑣</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑎</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑣</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>1</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑏</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:num>
+                          <m:den>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑣</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>1</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑏</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∗10</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="ka-GE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>0</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F392C407-A7E4-4E83-9FD7-13FF6D622DBE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5495924" y="1000126"/>
+              <a:ext cx="1981201" cy="514350"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>დანაკარგი: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>|(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑣_2𝑎−𝑣_1𝑏)/𝑣_1𝑏 |∗10</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6867,21 +7591,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="A1" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -6970,7 +7694,7 @@
       <c r="H6" s="7"/>
       <c r="K6" s="23"/>
       <c r="L6" s="24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M6" s="25">
         <f>(M3+M4)</f>
@@ -6990,7 +7714,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
       <c r="L7" s="26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M7" s="3">
         <f>(M3*M4)</f>
@@ -7079,22 +7803,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
+      <c r="A1" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
@@ -7121,13 +7845,13 @@
       <c r="I3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
+      <c r="J3" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -7157,11 +7881,11 @@
       <c r="I4" s="1">
         <v>9.7893340000000002</v>
       </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -7191,11 +7915,11 @@
       <c r="I5" s="1">
         <v>9.8269470000000005</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -7225,11 +7949,11 @@
       <c r="I6" s="1">
         <v>9.811223</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -7300,75 +8024,75 @@
       <c r="N8" s="28"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J9" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
+      <c r="J9" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J14" s="54" t="s">
+      <c r="J14" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="57"/>
     </row>
     <row r="15" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J15" s="57"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="59"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="60"/>
     </row>
     <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="59"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="60"/>
     </row>
     <row r="17" spans="10:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J17" s="60" t="s">
+      <c r="J17" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="63"/>
     </row>
     <row r="18" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J18" s="60"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="62"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="63"/>
     </row>
     <row r="19" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="60"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="62"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="63"/>
     </row>
     <row r="20" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J20" s="63"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="65"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7400,39 +8124,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
+      <c r="A1" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
       <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H2" s="36"/>
       <c r="I2" s="28"/>
@@ -7441,13 +8165,13 @@
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B3" s="33">
         <v>0.52</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E3" s="18">
         <v>1.6779999999999999</v>
@@ -7465,13 +8189,13 @@
     </row>
     <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4" s="33">
         <v>0.02</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1">
         <v>1.2065999999999999</v>
@@ -7489,13 +8213,13 @@
     </row>
     <row r="5" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5" s="33">
         <v>0.92</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E5" s="18">
         <v>1.79</v>
@@ -7513,7 +8237,7 @@
     </row>
     <row r="6" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6" s="33">
         <v>0.36</v>
@@ -7525,45 +8249,45 @@
     </row>
     <row r="7" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B7" s="33">
         <v>0.02</v>
       </c>
-      <c r="D7" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="71"/>
-      <c r="G7" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="71"/>
-      <c r="J7" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="71"/>
+      <c r="D7" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="72"/>
+      <c r="G7" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="72"/>
+      <c r="J7" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B8" s="33">
         <v>1.84</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E8" s="34">
         <v>1.6717</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H8" s="34">
         <v>1.2009000000000001</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K8" s="34">
         <v>1.7833000000000001</v>
@@ -7571,19 +8295,19 @@
     </row>
     <row r="9" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D9" s="37" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E9" s="34">
         <v>0.2863</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H9" s="34">
         <v>0.55469999999999997</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K9" s="34">
         <v>0.25159999999999999</v>
@@ -7591,19 +8315,19 @@
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D10" s="37" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E10" s="34">
         <v>0.21329999999999999</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H10" s="34">
         <v>0.42649999999999999</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K10" s="34">
         <v>0.21329999999999999</v>
@@ -7611,19 +8335,19 @@
     </row>
     <row r="11" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11" s="35">
         <v>0.34</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H11" s="35">
         <v>0.3</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K11" s="35">
         <v>0.18</v>
@@ -7649,306 +8373,323 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.42578125" customWidth="1"/>
-    <col min="2" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="21"/>
+      <c r="A1" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
       <c r="O1" s="21"/>
       <c r="P1" s="21"/>
     </row>
-    <row r="4" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="16" t="s">
+    <row r="4" spans="1:16" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="G4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>65</v>
+      <c r="H4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="19">
+      <c r="B5" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="19">
         <v>1.4676</v>
       </c>
-      <c r="D5" s="19">
+      <c r="F5" s="19">
         <v>1.4705999999999999</v>
       </c>
-      <c r="E5" s="19">
+      <c r="G5" s="19">
         <v>1.4693000000000001</v>
       </c>
-      <c r="F5" s="19">
+      <c r="H5" s="19">
         <v>0.556917</v>
       </c>
-      <c r="G5" s="19">
+      <c r="I5" s="19">
         <v>0.40139000000000002</v>
       </c>
-      <c r="H5" s="76">
-        <f>50*9.8*G5</f>
-        <v>196.68110000000004</v>
+      <c r="J5" s="49">
+        <f>(9.80665*C5*I5)</f>
+        <v>0.19681456217500001</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="19">
+      <c r="B6" s="80"/>
+      <c r="C6" s="31">
+        <v>0.06</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="19">
         <v>0.96840000000000004</v>
       </c>
-      <c r="D6" s="19">
+      <c r="F6" s="19">
         <v>0.97640000000000005</v>
       </c>
-      <c r="E6" s="19">
+      <c r="G6" s="19">
         <v>0.97009999999999996</v>
       </c>
-      <c r="F6" s="19">
+      <c r="H6" s="19">
         <v>1.0628120000000001</v>
       </c>
-      <c r="G6" s="19">
+      <c r="I6" s="19">
         <v>0.40792</v>
       </c>
-      <c r="H6" s="76">
-        <f>60*9.8*G6</f>
-        <v>239.85696000000002</v>
+      <c r="J6" s="49">
+        <f t="shared" ref="J6:J7" si="0">(9.80665*C6*I6)</f>
+        <v>0.24001972007999997</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="19">
+      <c r="B7" s="81"/>
+      <c r="C7" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="19">
         <v>0.7984</v>
       </c>
-      <c r="D7" s="20">
+      <c r="F7" s="20">
         <v>0.80100000000000005</v>
       </c>
-      <c r="E7" s="19">
+      <c r="G7" s="19">
         <v>0.79679999999999995</v>
       </c>
-      <c r="F7" s="27">
+      <c r="H7" s="27">
         <v>1.5625</v>
       </c>
-      <c r="G7" s="19">
+      <c r="I7" s="19">
         <v>0.40544999999999998</v>
       </c>
-      <c r="H7" s="76">
-        <f>70*9.8*G7</f>
-        <v>278.13869999999997</v>
+      <c r="J7" s="49">
+        <f t="shared" si="0"/>
+        <v>0.27832743697500001</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="77">
-        <f>(AVERAGE(H5:H7))</f>
-        <v>238.22558666666669</v>
-      </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>30</v>
+      <c r="I8" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="50">
+        <f>(AVERAGE(J5:J7))</f>
+        <v>0.23838723974333331</v>
+      </c>
+      <c r="L8" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" s="77"/>
+      <c r="N8" s="41" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J9" s="39"/>
-      <c r="K9" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="41" t="s">
-        <v>32</v>
+      <c r="L9" s="39"/>
+      <c r="M9" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="41" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
-      <c r="J10" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="78">
+      <c r="L10" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="79"/>
+      <c r="N10" s="51">
         <v>1E-3</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
-      <c r="B11" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
       <c r="M11" s="42"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
       <c r="M12" s="42"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
       <c r="M13" s="42"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
       <c r="M14" s="42"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
       <c r="M15" s="42"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
       <c r="M16" s="42"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
       <c r="M17" s="42"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
       <c r="M18" s="42"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
       <c r="M19" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B11:L19"/>
-    <mergeCell ref="A1:L1"/>
+  <mergeCells count="4">
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -7967,8 +8708,271 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" s="21" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD34F534-8F62-43AA-9740-81595D0D0225}">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="44">
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="44">
+        <v>0.02</v>
+      </c>
+      <c r="G5" s="44">
+        <v>0.02</v>
+      </c>
+      <c r="H5" s="44">
+        <v>2.01E-2</v>
+      </c>
+      <c r="I5" s="44">
+        <v>0.02</v>
+      </c>
+      <c r="J5" s="44">
+        <v>2.01E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="45">
+        <v>5</v>
+      </c>
+      <c r="F6" s="45">
+        <v>5</v>
+      </c>
+      <c r="G6" s="45">
+        <v>5</v>
+      </c>
+      <c r="H6" s="45">
+        <v>4.9749999999999996</v>
+      </c>
+      <c r="I6" s="45">
+        <v>5</v>
+      </c>
+      <c r="J6" s="45">
+        <v>4.9749999999999996</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D8" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+      <c r="E9" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="31" t="s">
         <v>97</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55D09DC-E39F-4D44-9F38-DC60927FED1E}">
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="12.85546875" customWidth="1"/>
+    <col min="6" max="7" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
+        <v>99</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -7985,229 +8989,123 @@
       <c r="N1" s="67"/>
       <c r="O1" s="67"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H8" t="s">
-        <v>98</v>
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="89"/>
+      <c r="D4" s="9"/>
+      <c r="F4" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="89"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="F5" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="F6" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="F7" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="F8" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="86" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H9" t="s">
-        <v>99</v>
+      <c r="B9" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="87">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="F9" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="87">
+        <v>3.9E-2</v>
       </c>
     </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
-  </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD34F534-8F62-43AA-9740-81595D0D0225}">
-  <dimension ref="A1:O10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="21"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
-    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
-    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>78</v>
-      </c>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
     </row>
-    <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="45">
-        <v>0.02</v>
-      </c>
-      <c r="F5" s="45">
-        <v>0.02</v>
-      </c>
-      <c r="G5" s="45">
-        <v>0.02</v>
-      </c>
-      <c r="H5" s="45">
-        <v>2.01E-2</v>
-      </c>
-      <c r="I5" s="45">
-        <v>0.02</v>
-      </c>
-      <c r="J5" s="45">
-        <v>2.01E-2</v>
-      </c>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
-    <row r="6" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="46">
-        <v>5</v>
-      </c>
-      <c r="F6" s="46">
-        <v>5</v>
-      </c>
-      <c r="G6" s="46">
-        <v>5</v>
-      </c>
-      <c r="H6" s="46">
-        <v>4.9749999999999996</v>
-      </c>
-      <c r="I6" s="46">
-        <v>5</v>
-      </c>
-      <c r="J6" s="46">
-        <v>4.9749999999999996</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" s="50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
-      <c r="E9" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="M10" s="50" t="s">
-        <v>86</v>
-      </c>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/PhysicsExperiments.xlsx
+++ b/PhysicsExperiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\PhysicsMechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B51611-4052-42B1-A71D-80918995281F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAC1180-488B-45EA-9AC6-F72F8107B34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" firstSheet="3" activeTab="6" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment_0" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="119">
   <si>
     <t>σ =</t>
   </si>
@@ -1585,7 +1585,10 @@
     <t>5.7 მ/წმ</t>
   </si>
   <si>
-    <t>L =</t>
+    <t>21.3 მ/წმ</t>
+  </si>
+  <si>
+    <t>16.7 მ/წმ</t>
   </si>
   <si>
     <r>
@@ -1596,7 +1599,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>m</t>
+      <t>v</t>
     </r>
     <r>
       <rPr>
@@ -1607,7 +1610,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">1  </t>
+      <t xml:space="preserve">1b  </t>
     </r>
     <r>
       <rPr>
@@ -1617,7 +1620,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>=</t>
+      <t>(ურიკა 1-ის საწყისი სიჩქარე):</t>
     </r>
   </si>
   <si>
@@ -1640,7 +1643,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">1b </t>
+      <t>2a</t>
     </r>
     <r>
       <rPr>
@@ -1650,19 +1653,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>=</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>v</t>
+      <t xml:space="preserve"> (ურიკა 2-ის საბოლოო სიჩქარე):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
     </r>
     <r>
       <rPr>
@@ -1673,6 +1669,89 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">1b </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ურიკა 1-ის საწყისი იმპულსი):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ურიკა 2-ის საბოლოო იმპულსი):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m (ერთნაირი მასა):</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(სიგრძე):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>% სხვაობა P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2a</t>
     </r>
     <r>
@@ -1683,17 +1762,178 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> =</t>
-    </r>
-  </si>
-  <si>
-    <t>დანაკარგი:</t>
-  </si>
-  <si>
-    <t>21.3 მ/წმ</t>
-  </si>
-  <si>
-    <t>16.7 მ/წმ</t>
+      <t xml:space="preserve"> და P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  შორის: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>% სხვაობა v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> და v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> შორის:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>KE</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (ურიკა 2-ის საბოლოო KE):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>KE</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (ურიკა 1-ის საწყისი KE):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>% სვაობა KE</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> და KE</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> შორის:</t>
+    </r>
+  </si>
+  <si>
+    <t>არადრეკადი დაჯახება</t>
   </si>
 </sst>
 </file>
@@ -2042,7 +2282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2214,14 +2454,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2229,11 +2466,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2241,28 +2475,38 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6967,16 +7211,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -6993,8 +7237,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5495924" y="1000126"/>
-              <a:ext cx="1981201" cy="514350"/>
+              <a:off x="952499" y="4219576"/>
+              <a:ext cx="4724401" cy="457200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7028,6 +7272,7 @@
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7040,11 +7285,11 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>დანაკარგი: </m:t>
+                      <m:t>% სხვაობა: </m:t>
                     </m:r>
                     <m:d>
                       <m:dPr>
@@ -7079,7 +7324,7 @@
                                   <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
-                                  <m:t>𝑣</m:t>
+                                  <m:t>𝑥</m:t>
                                 </m:r>
                               </m:e>
                               <m:sub>
@@ -7088,12 +7333,6 @@
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                   <m:t>2</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>𝑎</m:t>
                                 </m:r>
                               </m:sub>
                             </m:sSub>
@@ -7116,7 +7355,7 @@
                                   <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
-                                  <m:t>𝑣</m:t>
+                                  <m:t>𝑥</m:t>
                                 </m:r>
                               </m:e>
                               <m:sub>
@@ -7125,12 +7364,6 @@
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                   <m:t>1</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>𝑏</m:t>
                                 </m:r>
                               </m:sub>
                             </m:sSub>
@@ -7149,7 +7382,7 @@
                                   <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
-                                  <m:t>𝑣</m:t>
+                                  <m:t>𝑥</m:t>
                                 </m:r>
                               </m:e>
                               <m:sub>
@@ -7158,12 +7391,6 @@
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                   <m:t>1</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>𝑏</m:t>
                                 </m:r>
                               </m:sub>
                             </m:sSub>
@@ -7205,8 +7432,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5495924" y="1000126"/>
-              <a:ext cx="1981201" cy="514350"/>
+              <a:off x="952499" y="4219576"/>
+              <a:ext cx="4724401" cy="457200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7240,17 +7467,18 @@
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="ka-GE" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>დანაკარგი: </a:t>
+                <a:t>% სხვაობა: </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -7262,7 +7490,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑣_2𝑎−𝑣_1𝑏)/𝑣_1𝑏 |∗10</a:t>
+                <a:t>𝑥_2−𝑥_1)/𝑥_1 |∗10</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ka-GE" sz="1100" b="0" i="0">
@@ -8429,7 +8657,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="77" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="31">
@@ -8459,7 +8687,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="80"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="31">
         <v>0.06</v>
       </c>
@@ -8487,7 +8715,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="81"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="31">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -8522,10 +8750,10 @@
         <f>(AVERAGE(J5:J7))</f>
         <v>0.23838723974333331</v>
       </c>
-      <c r="L8" s="76" t="s">
+      <c r="L8" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="77"/>
+      <c r="M8" s="76"/>
       <c r="N8" s="41" t="s">
         <v>27</v>
       </c>
@@ -8541,10 +8769,10 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
-      <c r="L10" s="78" t="s">
+      <c r="L10" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="79"/>
+      <c r="M10" s="74"/>
       <c r="N10" s="51">
         <v>1E-3</v>
       </c>
@@ -8787,15 +9015,15 @@
       <c r="B3" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
@@ -8883,15 +9111,15 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
@@ -8958,16 +9186,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55D09DC-E39F-4D44-9F38-DC60927FED1E}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="12.85546875" customWidth="1"/>
-    <col min="6" max="7" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8990,121 +9222,194 @@
       <c r="O1" s="67"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="89"/>
+      <c r="C4" s="82"/>
       <c r="D4" s="9"/>
-      <c r="F4" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="89"/>
+      <c r="E4" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="82"/>
     </row>
-    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="83" t="s">
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="84" t="s">
         <v>102</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="F5" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="83" t="s">
+      <c r="E5" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="84" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="84" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="83" t="s">
+      <c r="B6" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="84" t="s">
         <v>101</v>
       </c>
       <c r="D6" s="9"/>
+      <c r="E6" s="85" t="s">
+        <v>112</v>
+      </c>
       <c r="F6" s="84" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" s="83" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="84" t="s">
         <v>103</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="F7" s="74" t="s">
+      <c r="E7" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="83" t="s">
-        <v>110</v>
+      <c r="F7" s="84" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="87" t="s">
         <v>104</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="F8" s="85" t="s">
+      <c r="E8" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="86" t="s">
-        <v>111</v>
+      <c r="F8" s="87" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="75" t="s">
+    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="B9" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="88">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="88">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="B10" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="87">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="F9" s="75" t="s">
+      <c r="C10" s="89" t="str">
+        <f>(0.518*6.3)&amp;" კგ.მ/წმ"</f>
+        <v>3.2634 კგ.მ/წმ</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="G9" s="87">
-        <v>3.9E-2</v>
+      <c r="F10" s="89" t="str">
+        <f>(0.518*21.3)&amp;" კგ.მ/წმ"</f>
+        <v>11.0334 კგ.მ/წმ</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="B11" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="89" t="str">
+        <f>(0.518*5.7)&amp;" კგ.მ/წმ"</f>
+        <v>2.9526 კგ.მ/წმ</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="89" t="str">
+        <f>(0.518*16.7)&amp;" კგ.მ/წმ"</f>
+        <v>8.6506 კგ.მ/წმ</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="B12" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="91">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="D12" s="83"/>
+      <c r="E12" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="90" t="str">
+        <f>21.6&amp;"%"</f>
+        <v>21.6%</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="B13" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="89" t="str">
+        <f>(0.5*0.518*6.3^2)&amp;" ჯ"</f>
+        <v>10.27971 ჯ</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="89" t="str">
+        <f>(0.5*0.518*21.3*21.3)&amp;" ჯ"</f>
+        <v>117.50571 ჯ</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="B14" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="89" t="str">
+        <f>0.5*0.518*5.7^2&amp;" ჯ"</f>
+        <v>8.41491 ჯ</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="89" t="str">
+        <f>(0.5*0.518*16.7*16.7)&amp;" ჯ"</f>
+        <v>72.23251 ჯ</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="B15" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="91">
+        <v>0.18140000000000001</v>
+      </c>
+      <c r="E15" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="91">
+        <v>0.38519999999999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/PhysicsExperiments.xlsx
+++ b/PhysicsExperiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\PhysicsMechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAC1180-488B-45EA-9AC6-F72F8107B34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B490F0-8FC1-4A04-A81B-E1FB77C75DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" firstSheet="3" activeTab="6" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="5" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment_0" sheetId="1" r:id="rId1"/>
@@ -1449,28 +1449,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ურიკისსაწყისი</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> წონა:</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>V</t>
     </r>
     <r>
@@ -1934,6 +1912,9 @@
   </si>
   <si>
     <t>არადრეკადი დაჯახება</t>
+  </si>
+  <si>
+    <t>ურიკის საწყისი წონა:</t>
   </si>
 </sst>
 </file>
@@ -2391,6 +2372,31 @@
     <xf numFmtId="167" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2460,12 +2466,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2484,29 +2484,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7222,8 +7203,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -7418,7 +7399,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -7819,21 +7800,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -8031,22 +8012,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
@@ -8073,13 +8054,13 @@
       <c r="I3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="69" t="s">
+      <c r="J3" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -8109,11 +8090,11 @@
       <c r="I4" s="1">
         <v>9.7893340000000002</v>
       </c>
-      <c r="J4" s="69"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -8143,11 +8124,11 @@
       <c r="I5" s="1">
         <v>9.8269470000000005</v>
       </c>
-      <c r="J5" s="69"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -8177,11 +8158,11 @@
       <c r="I6" s="1">
         <v>9.811223</v>
       </c>
-      <c r="J6" s="69"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -8252,75 +8233,75 @@
       <c r="N8" s="28"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J14" s="55" t="s">
+      <c r="J14" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="57"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="66"/>
     </row>
     <row r="15" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="60"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="69"/>
     </row>
     <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J16" s="58"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="60"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="69"/>
     </row>
     <row r="17" spans="10:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J17" s="61" t="s">
+      <c r="J17" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="63"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
     </row>
     <row r="18" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J18" s="61"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="63"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
     </row>
     <row r="19" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="61"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="63"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
     </row>
     <row r="20" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J20" s="64"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="66"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8352,19 +8333,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
       <c r="N1" s="21"/>
@@ -8482,18 +8463,18 @@
       <c r="B7" s="33">
         <v>0.02</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="G7" s="71" t="s">
+      <c r="E7" s="81"/>
+      <c r="G7" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="72"/>
-      <c r="J7" s="71" t="s">
+      <c r="H7" s="81"/>
+      <c r="J7" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="72"/>
+      <c r="K7" s="81"/>
     </row>
     <row r="8" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
@@ -8601,7 +8582,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8612,25 +8593,26 @@
     <col min="5" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
       <c r="O1" s="21"/>
       <c r="P1" s="21"/>
     </row>
@@ -8657,7 +8639,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="84" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="31">
@@ -8687,7 +8669,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="78"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="31">
         <v>0.06</v>
       </c>
@@ -8715,7 +8697,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="79"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="31">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -8750,10 +8732,10 @@
         <f>(AVERAGE(J5:J7))</f>
         <v>0.23838723974333331</v>
       </c>
-      <c r="L8" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" s="76"/>
+      <c r="L8" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="M8" s="91"/>
       <c r="N8" s="41" t="s">
         <v>27</v>
       </c>
@@ -8769,10 +8751,10 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
-      <c r="L10" s="73" t="s">
+      <c r="L10" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="74"/>
+      <c r="M10" s="83"/>
       <c r="N10" s="51">
         <v>1E-3</v>
       </c>
@@ -8936,23 +8918,23 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" s="21" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
@@ -8977,7 +8959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD34F534-8F62-43AA-9740-81595D0D0225}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
@@ -8990,22 +8972,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
+      <c r="A1" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
       <c r="O1" s="21"/>
     </row>
     <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -9015,15 +8997,15 @@
       <c r="B3" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
@@ -9104,22 +9086,22 @@
         <v>4.9749999999999996</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M6" s="32" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
@@ -9165,7 +9147,7 @@
         <v>82</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M10" s="32" t="s">
         <v>78</v>
@@ -9188,7 +9170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55D09DC-E39F-4D44-9F38-DC60927FED1E}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -9203,205 +9185,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
+      <c r="A1" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="81" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="82"/>
+      <c r="B4" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="89"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="82"/>
+      <c r="E4" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="89"/>
     </row>
     <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="84" t="s">
-        <v>102</v>
+        <v>110</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>101</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="84" t="s">
-        <v>102</v>
+        <v>110</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>101</v>
+      <c r="B6" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>100</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="84" t="s">
-        <v>101</v>
+      <c r="E6" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B7" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>102</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="84" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="87" t="s">
-        <v>104</v>
+      <c r="B8" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>103</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="87" t="s">
-        <v>106</v>
+      <c r="E8" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="88">
+        <v>113</v>
+      </c>
+      <c r="C9" s="57">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="88">
+        <v>113</v>
+      </c>
+      <c r="F9" s="57">
         <v>3.9E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B10" s="86" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="89" t="str">
+      <c r="B10" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="58" t="str">
         <f>(0.518*6.3)&amp;" კგ.მ/წმ"</f>
         <v>3.2634 კგ.მ/წმ</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="86" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="89" t="str">
+      <c r="E10" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="58" t="str">
         <f>(0.518*21.3)&amp;" კგ.მ/წმ"</f>
         <v>11.0334 კგ.მ/წმ</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B11" s="86" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="89" t="str">
+      <c r="B11" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="58" t="str">
         <f>(0.518*5.7)&amp;" კგ.მ/წმ"</f>
         <v>2.9526 კგ.მ/წმ</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="86" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="89" t="str">
+      <c r="E11" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="58" t="str">
         <f>(0.518*16.7)&amp;" კგ.მ/წმ"</f>
         <v>8.6506 კგ.მ/წმ</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B12" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="91">
+      <c r="B12" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="60">
         <v>9.5200000000000007E-2</v>
       </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="90" t="str">
+      <c r="D12" s="52"/>
+      <c r="E12" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="59" t="str">
         <f>21.6&amp;"%"</f>
         <v>21.6%</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B13" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="89" t="str">
+      <c r="B13" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="58" t="str">
         <f>(0.5*0.518*6.3^2)&amp;" ჯ"</f>
         <v>10.27971 ჯ</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="F13" s="89" t="str">
+      <c r="E13" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="58" t="str">
         <f>(0.5*0.518*21.3*21.3)&amp;" ჯ"</f>
         <v>117.50571 ჯ</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B14" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="89" t="str">
+      <c r="B14" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="58" t="str">
         <f>0.5*0.518*5.7^2&amp;" ჯ"</f>
         <v>8.41491 ჯ</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="89" t="str">
+      <c r="E14" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="58" t="str">
         <f>(0.5*0.518*16.7*16.7)&amp;" ჯ"</f>
         <v>72.23251 ჯ</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B15" s="86" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="91">
+      <c r="B15" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="60">
         <v>0.18140000000000001</v>
       </c>
-      <c r="E15" s="86" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="91">
+      <c r="E15" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="60">
         <v>0.38519999999999999</v>
       </c>
     </row>

--- a/PhysicsExperiments.xlsx
+++ b/PhysicsExperiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\PhysicsMechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B490F0-8FC1-4A04-A81B-E1FB77C75DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACBC193-09BD-40BE-8C02-E0BF7A91E06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="5" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment_0" sheetId="1" r:id="rId1"/>
@@ -2263,7 +2263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2466,6 +2466,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2484,11 +2490,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2542,7 +2545,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ka-GE" sz="1400"/>
-              <a:t>სიჩქარის დროზე დამოკიდებულობის გრაფიკი</a:t>
+              <a:t>სიჩქარის დროზე დამოკიდებულების გრაფიკი</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400"/>
           </a:p>
@@ -7177,7 +7180,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="ka-GE" sz="1200" baseline="0"/>
-            <a:t>    ბ) თუ ორივე ფოტორელე აღიქვამს ბურთს და თან ვიცით, რომ თავისუფალი ფრენის დროს ჰორიზონტალური სიჩქარე არ იცვლება, მაშინ გავლენა არ აქვს;</a:t>
+            <a:t>    ბ) თუ ორივე ფოტო რელე აღიქვამს ბურთს და თან ვიცით, რომ თავისუფალი ფრენის დროს ჰორიზონტალური სიჩქარე არ იცვლება, მაშინ გავლენა არ აქვს;</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200"/>
         </a:p>
@@ -7192,299 +7195,484 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F392C407-A7E4-4E83-9FD7-13FF6D622DBE}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="952499" y="4219576"/>
-              <a:ext cx="4724401" cy="457200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F392C407-A7E4-4E83-9FD7-13FF6D622DBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="3848100"/>
+          <a:ext cx="9058275" cy="3095625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="1" u="none"/>
+            <a:t>პასუხები:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr/>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="1"/>
+            <a:t>1)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="0" i="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="ka-GE" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="dk1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>% სხვაობა: </m:t>
-                    </m:r>
-                    <m:d>
-                      <m:dPr>
-                        <m:begChr m:val="|"/>
-                        <m:endChr m:val="|"/>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:dPr>
-                      <m:e>
-                        <m:f>
-                          <m:fPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1100" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:fPr>
-                          <m:num>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1100" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>𝑥</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>2</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>−</m:t>
-                            </m:r>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>𝑥</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>1</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
-                          </m:num>
-                          <m:den>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1100" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>𝑥</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>1</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
-                          </m:den>
-                        </m:f>
-                      </m:e>
-                    </m:d>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>∗10</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="ka-GE" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>0</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F392C407-A7E4-4E83-9FD7-13FF6D622DBE}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="952499" y="4219576"/>
-              <a:ext cx="4724401" cy="457200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>დრეკადი დაჯახებისას სხეულები დამოუკიდებლად აგრძელებენ მოძრაობას, ინახება იმპულსი და თუ დაჯახება აბსოლიტურად დრეკადია, ენერგიაც. თუ არარის აბსოლიტურად დრეკადი მაშინ ხდება ენერგიის გარდაქმნა. არადრეკადი დაჯახების დროს იმპულსი ინახება, ენერგიის ნაწილი კი გარდაიქმნება;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr/>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="1" i="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="ka-GE" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>% სხვაობა: </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>|(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑥_2−𝑥_1)/𝑥_1 |∗10</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ka-GE" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>0</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>იმპულსი ინახება ბურთის კედელთან დაჯახებისას, კედელი რჩება უძრავად</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> სხეული კი თითქმის იმავე სიჩქარით წამოვა უკან. იმპულსის ცვლილება იქნება 2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>p</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr/>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ისეთ ზედაპირზე სადაც ხახუნის ძალა ნულის ტოლია სიარული შეუძლებელია, მაგრამ შესაძლებელია მოძრაობა თუ გარკვეული მასის ტვირთს გადავაგდებთ ერთი მიმართულებით გარკვეული იმპულსით, იმავე იმპულსით ავმოძრავდებით საპირისპირო მიმართულებით;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr/>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ავტომობილი იმპულსს გადასცემს დედამიწის ზედაპირს, რაც შეეხება ენერგიას, ის გარდაიქმნება სითბურ ენერგიად, და ნაწილი გადაეცემა დედამიწის ზედაპირს;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr/>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>იმპულსი ინახება, ამ ორი ურიკის იმპულსების ვექტორული ჯამი ნულის ტოლი იქნება, რაც შეეხება კინეტიკურ ენერგიას, ნაწილი გადავა ურიკების კინეტიკურ ენერგიაში, ნაწილი კი გამოიყოფა სითბოსა და ხმის სახით;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr/>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ვთქვათ პირველმა ასტრონავტმა მოისროლა მეორე ასტრონავტი მესამეს მიმართულებით, პირველს და მეორეს მიენიჭებათ ერთნაირი იმპულსი, და რადგან მასა ერთნაირი აქვთ, სიჩქარეც მოდულით ტოლი ექნებათ. მეორე ასტრონავტის სიჩქარე არის </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>V </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>პირველის -</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>V , </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>როდესაც მესამე ასტრონავტი დაიჭერს მეორეს, მათი სიჩქარე გახდება </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>V/2 , </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>შემდეგ მესამე გაისვრის მეორეს, რადგან ყველა ასტრონავტს ერთნაირი ძალა და მასა აქვთ, მეორე ასტრონავტის სიჩქარე გასროლის შემდეგ გახდება -</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>v/2 . </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>რადგან პირველი ასტრონავტის სიჩქარე არის -</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>v </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>და მეორის -</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>v/2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ka-GE" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>მეორე ვერ დაეწევა პირველს, ასე რომ, ჯამში მოხდება მხოლოდ 2 გასროლა;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8003,7 +8191,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="J14" sqref="J14:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8582,7 +8770,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8639,7 +8827,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="86" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="31">
@@ -8669,7 +8857,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="85"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="31">
         <v>0.06</v>
       </c>
@@ -8697,7 +8885,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="86"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="31">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -8732,10 +8920,10 @@
         <f>(AVERAGE(J5:J7))</f>
         <v>0.23838723974333331</v>
       </c>
-      <c r="L8" s="90" t="s">
+      <c r="L8" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="M8" s="91"/>
+      <c r="M8" s="85"/>
       <c r="N8" s="41" t="s">
         <v>27</v>
       </c>
@@ -8959,7 +9147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD34F534-8F62-43AA-9740-81595D0D0225}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
@@ -8997,15 +9185,15 @@
       <c r="B3" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
@@ -9093,15 +9281,15 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
@@ -9168,23 +9356,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55D09DC-E39F-4D44-9F38-DC60927FED1E}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="39.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
         <v>98</v>
       </c>
@@ -9194,206 +9383,206 @@
       <c r="E1" s="76"/>
       <c r="F1" s="76"/>
       <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="88" t="s">
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="89"/>
+      <c r="C3" s="91"/>
+      <c r="E3" s="90" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="91"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>101</v>
+      </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" s="89"/>
+      <c r="E4" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
-        <v>110</v>
+    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="54" t="s">
+        <v>111</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="31" t="s">
-        <v>110</v>
+      <c r="E5" s="54" t="s">
+        <v>111</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="54" t="s">
-        <v>111</v>
+      <c r="B6" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="54" t="s">
-        <v>111</v>
+      <c r="E6" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>102</v>
+      <c r="B7" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>103</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>104</v>
+      <c r="E7" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>103</v>
+    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="57">
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="56" t="s">
-        <v>105</v>
+      <c r="E8" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="57">
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="57">
-        <v>9.5000000000000001E-2</v>
+      <c r="B9" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="58" t="str">
+        <f>(0.518*6.3)&amp;" კგ.მ/წმ"</f>
+        <v>3.2634 კგ.მ/წმ</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="57">
-        <v>3.9E-2</v>
+      <c r="E9" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="58" t="str">
+        <f>(0.518*21.3)&amp;" კგ.მ/წმ"</f>
+        <v>11.0334 კგ.მ/წმ</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B10" s="55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" s="58" t="str">
-        <f>(0.518*6.3)&amp;" კგ.მ/წმ"</f>
-        <v>3.2634 კგ.მ/წმ</v>
+        <f>(0.518*5.7)&amp;" კგ.მ/წმ"</f>
+        <v>2.9526 კგ.მ/წმ</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F10" s="58" t="str">
-        <f>(0.518*21.3)&amp;" კგ.მ/წმ"</f>
-        <v>11.0334 კგ.მ/წმ</v>
+        <f>(0.518*16.7)&amp;" კგ.მ/წმ"</f>
+        <v>8.6506 კგ.მ/წმ</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B11" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="58" t="str">
-        <f>(0.518*5.7)&amp;" კგ.მ/წმ"</f>
-        <v>2.9526 კგ.მ/წმ</v>
+        <v>112</v>
+      </c>
+      <c r="C11" s="60">
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="58" t="str">
-        <f>(0.518*16.7)&amp;" კგ.მ/წმ"</f>
-        <v>8.6506 კგ.მ/წმ</v>
+        <v>112</v>
+      </c>
+      <c r="F11" s="59" t="str">
+        <f>21.6&amp;"%"</f>
+        <v>21.6%</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B12" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="60">
-        <v>9.5200000000000007E-2</v>
+        <v>115</v>
+      </c>
+      <c r="C12" s="58" t="str">
+        <f>(0.5*0.518*6.3^2)&amp;" ჯ"</f>
+        <v>10.27971 ჯ</v>
       </c>
       <c r="D12" s="52"/>
       <c r="E12" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12" s="59" t="str">
-        <f>21.6&amp;"%"</f>
-        <v>21.6%</v>
+        <v>115</v>
+      </c>
+      <c r="F12" s="58" t="str">
+        <f>(0.5*0.518*21.3*21.3)&amp;" ჯ"</f>
+        <v>117.50571 ჯ</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B13" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" s="58" t="str">
-        <f>(0.5*0.518*6.3^2)&amp;" ჯ"</f>
-        <v>10.27971 ჯ</v>
+        <f>0.5*0.518*5.7^2&amp;" ჯ"</f>
+        <v>8.41491 ჯ</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13" s="58" t="str">
-        <f>(0.5*0.518*21.3*21.3)&amp;" ჯ"</f>
-        <v>117.50571 ჯ</v>
+        <f>(0.5*0.518*16.7*16.7)&amp;" ჯ"</f>
+        <v>72.23251 ჯ</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B14" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="58" t="str">
-        <f>0.5*0.518*5.7^2&amp;" ჯ"</f>
-        <v>8.41491 ჯ</v>
+        <v>116</v>
+      </c>
+      <c r="C14" s="60">
+        <v>0.18140000000000001</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="58" t="str">
-        <f>(0.5*0.518*16.7*16.7)&amp;" ჯ"</f>
-        <v>72.23251 ჯ</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B15" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="60">
-        <v>0.18140000000000001</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="60">
+      <c r="F14" s="60">
         <v>0.38519999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/PhysicsExperiments.xlsx
+++ b/PhysicsExperiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\PhysicsMechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACBC193-09BD-40BE-8C02-E0BF7A91E06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC934D6-DE8B-484B-8D20-26C18EA269E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="4" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment_0" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="133">
   <si>
     <t>σ =</t>
   </si>
@@ -1338,36 +1338,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ექსპერიმენტი IV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-idk</t>
-    </r>
-  </si>
-  <si>
-    <t>idk</t>
-  </si>
-  <si>
-    <t>vinmes tu gaqvt momweret</t>
-  </si>
-  <si>
-    <r>
       <t>F</t>
     </r>
     <r>
@@ -1915,6 +1885,119 @@
   </si>
   <si>
     <t>ურიკის საწყისი წონა:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ექსპერიმენტი IV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ცენტრისკენული ძალა</t>
+    </r>
+  </si>
+  <si>
+    <t>m =</t>
+  </si>
+  <si>
+    <t>0.218 კგ</t>
+  </si>
+  <si>
+    <t>M =</t>
+  </si>
+  <si>
+    <t>0.05 კგ</t>
+  </si>
+  <si>
+    <t>Mg =</t>
+  </si>
+  <si>
+    <t>0.49 ნ</t>
+  </si>
+  <si>
+    <t>N =</t>
+  </si>
+  <si>
+    <t>ცდა</t>
+  </si>
+  <si>
+    <t>საშუალო
+ (წმ)</t>
+  </si>
+  <si>
+    <t>ცენტრისკენული
+ძალა (ნ)</t>
+  </si>
+  <si>
+    <t>რადიუსი
+ (მ)</t>
+  </si>
+  <si>
+    <t>გაშვება 1
+ (წმ)</t>
+  </si>
+  <si>
+    <t>გაშვება 2 
+(წმ)</t>
+  </si>
+  <si>
+    <t>გაშვება 3 
+(წმ)</t>
+  </si>
+  <si>
+    <t>0.52 ნ</t>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>საშ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1928,7 +2011,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2067,6 +2150,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2263,7 +2363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2397,6 +2497,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2490,8 +2593,25 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5750,6 +5870,241 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C5E669-A214-40BD-9161-956CB1CA3E4D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3867150" y="2009775"/>
+              <a:ext cx="3781425" cy="495300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1600"/>
+                <a:t>ცდომილება = </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="ka-GE" sz="1600" i="1"/>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:d>
+                        <m:dPr>
+                          <m:begChr m:val="|"/>
+                          <m:endChr m:val="|"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="ka-GE" sz="1600" i="1"/>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑀𝑔</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>−</m:t>
+                          </m:r>
+                          <m:sSub>
+                            <m:sSubPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSubPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝐹</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sub>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑐</m:t>
+                              </m:r>
+                            </m:sub>
+                          </m:sSub>
+                        </m:e>
+                      </m:d>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑀𝑔</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>∗100%=6.1%</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C5E669-A214-40BD-9161-956CB1CA3E4D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3867150" y="2009775"/>
+              <a:ext cx="3781425" cy="495300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1600"/>
+                <a:t>ცდომილება = </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1600" i="0"/>
+                <a:t>|</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀𝑔−𝐹_𝑐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> |/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀𝑔∗100%=6.1%</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -7191,7 +7546,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7254,14 +7609,12 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
           <a:r>
             <a:rPr lang="ka-GE" sz="1000" b="1" u="none"/>
             <a:t>პასუხები:</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr/>
           <a:r>
             <a:rPr lang="ka-GE" sz="1000" b="1"/>
             <a:t>1)</a:t>
@@ -7284,7 +7637,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr/>
           <a:r>
             <a:rPr lang="ka-GE" sz="1000" b="1" i="0">
               <a:solidFill>
@@ -7371,7 +7723,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr/>
           <a:r>
             <a:rPr lang="ka-GE" sz="1000" b="1" i="0">
               <a:solidFill>
@@ -7398,7 +7749,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr/>
           <a:r>
             <a:rPr lang="ka-GE" sz="1000" b="1" i="0">
               <a:solidFill>
@@ -7425,7 +7775,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr/>
           <a:r>
             <a:rPr lang="ka-GE" sz="1000" b="0" i="0">
               <a:solidFill>
@@ -7464,7 +7813,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr/>
           <a:r>
             <a:rPr lang="ka-GE" sz="1000" b="1" i="0">
               <a:solidFill>
@@ -7988,21 +8336,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -8200,22 +8548,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
@@ -8242,13 +8590,13 @@
       <c r="I3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="78" t="s">
+      <c r="J3" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -8278,11 +8626,11 @@
       <c r="I4" s="1">
         <v>9.7893340000000002</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -8312,11 +8660,11 @@
       <c r="I5" s="1">
         <v>9.8269470000000005</v>
       </c>
-      <c r="J5" s="78"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -8346,11 +8694,11 @@
       <c r="I6" s="1">
         <v>9.811223</v>
       </c>
-      <c r="J6" s="78"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -8421,75 +8769,75 @@
       <c r="N8" s="28"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J14" s="64" t="s">
+      <c r="J14" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="67"/>
     </row>
     <row r="15" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J15" s="67"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="69"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="70"/>
     </row>
     <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J16" s="67"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="69"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="70"/>
     </row>
     <row r="17" spans="10:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J17" s="70" t="s">
+      <c r="J17" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="73"/>
     </row>
     <row r="18" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J18" s="70"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="73"/>
     </row>
     <row r="19" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="70"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="73"/>
     </row>
     <row r="20" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J20" s="73"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="75"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8521,19 +8869,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
       <c r="N1" s="21"/>
@@ -8651,18 +8999,18 @@
       <c r="B7" s="33">
         <v>0.02</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="G7" s="80" t="s">
+      <c r="E7" s="82"/>
+      <c r="G7" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="81"/>
-      <c r="J7" s="80" t="s">
+      <c r="H7" s="82"/>
+      <c r="J7" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="81"/>
+      <c r="K7" s="82"/>
     </row>
     <row r="8" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
@@ -8785,22 +9133,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
       <c r="O1" s="21"/>
       <c r="P1" s="21"/>
     </row>
@@ -8823,18 +9171,18 @@
         <v>60</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
-        <v>92</v>
+      <c r="B5" s="87" t="s">
+        <v>89</v>
       </c>
       <c r="C5" s="31">
         <v>0.05</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E5" s="19">
         <v>1.4676</v>
@@ -8857,12 +9205,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="87"/>
+      <c r="B6" s="88"/>
       <c r="C6" s="31">
         <v>0.06</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E6" s="19">
         <v>0.96840000000000004</v>
@@ -8885,12 +9233,12 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="88"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="31">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E7" s="19">
         <v>0.7984</v>
@@ -8914,16 +9262,16 @@
     </row>
     <row r="8" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I8" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J8" s="50">
         <f>(AVERAGE(J5:J7))</f>
         <v>0.23838723974333331</v>
       </c>
-      <c r="L8" s="84" t="s">
-        <v>118</v>
-      </c>
-      <c r="M8" s="85"/>
+      <c r="L8" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" s="86"/>
       <c r="N8" s="41" t="s">
         <v>27</v>
       </c>
@@ -8939,10 +9287,10 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
-      <c r="L10" s="82" t="s">
+      <c r="L10" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="83"/>
+      <c r="M10" s="84"/>
       <c r="N10" s="51">
         <v>1E-3</v>
       </c>
@@ -9097,17 +9445,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1606FDA-2A00-4E45-A273-11FFE99BEEE9}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="21" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>88</v>
+    <row r="1" spans="1:10" s="21" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
+        <v>116</v>
       </c>
       <c r="B1" s="77"/>
       <c r="C1" s="77"/>
@@ -9118,28 +9472,157 @@
       <c r="H1" s="77"/>
       <c r="I1" s="77"/>
       <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H8" t="s">
-        <v>89</v>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H9" t="s">
-        <v>90</v>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="94" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="94" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="93">
+        <v>1</v>
+      </c>
+      <c r="C16" s="93">
+        <v>0.12</v>
+      </c>
+      <c r="D16" s="93">
+        <v>7.06</v>
+      </c>
+      <c r="E16" s="95">
+        <v>6.86</v>
+      </c>
+      <c r="F16" s="95">
+        <v>7.43</v>
+      </c>
+      <c r="G16" s="96">
+        <f>(AVERAGE(D16:F16))</f>
+        <v>7.1166666666666671</v>
+      </c>
+      <c r="H16" s="93">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="93">
+        <v>2</v>
+      </c>
+      <c r="C17" s="93">
+        <v>0.15</v>
+      </c>
+      <c r="D17" s="96">
+        <v>7.5</v>
+      </c>
+      <c r="E17" s="95">
+        <v>8.35</v>
+      </c>
+      <c r="F17" s="95">
+        <v>7.75</v>
+      </c>
+      <c r="G17" s="96">
+        <f t="shared" ref="G17:G18" si="0">(AVERAGE(D17:F17))</f>
+        <v>7.8666666666666671</v>
+      </c>
+      <c r="H17" s="93">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="93">
+        <v>3</v>
+      </c>
+      <c r="C18" s="93">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="93">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="E18" s="93">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="F18" s="96">
+        <v>8.9</v>
+      </c>
+      <c r="G18" s="96">
+        <f t="shared" si="0"/>
+        <v>8.9666666666666668</v>
+      </c>
+      <c r="H18" s="93">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="98" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9160,22 +9643,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
+      <c r="A1" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
       <c r="O1" s="21"/>
     </row>
     <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -9185,15 +9668,15 @@
       <c r="B3" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
@@ -9274,22 +9757,22 @@
         <v>4.9749999999999996</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M6" s="32" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
@@ -9335,7 +9818,7 @@
         <v>82</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M10" s="32" t="s">
         <v>78</v>
@@ -9358,7 +9841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55D09DC-E39F-4D44-9F38-DC60927FED1E}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -9374,104 +9857,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
+      <c r="A1" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="90" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="91"/>
-      <c r="E3" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="91"/>
+      <c r="B3" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="92"/>
+      <c r="E3" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="92"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B5" s="54" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="54" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="31" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="31" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B7" s="55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C8" s="57">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F8" s="57">
         <v>3.9E-2</v>
@@ -9479,7 +9962,7 @@
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="55" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C9" s="58" t="str">
         <f>(0.518*6.3)&amp;" კგ.მ/წმ"</f>
@@ -9487,7 +9970,7 @@
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="55" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F9" s="58" t="str">
         <f>(0.518*21.3)&amp;" კგ.მ/წმ"</f>
@@ -9496,7 +9979,7 @@
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B10" s="55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C10" s="58" t="str">
         <f>(0.518*5.7)&amp;" კგ.მ/წმ"</f>
@@ -9504,7 +9987,7 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F10" s="58" t="str">
         <f>(0.518*16.7)&amp;" კგ.მ/წმ"</f>
@@ -9513,14 +9996,14 @@
     </row>
     <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B11" s="55" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C11" s="60">
         <v>9.5200000000000007E-2</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="55" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F11" s="59" t="str">
         <f>21.6&amp;"%"</f>
@@ -9529,7 +10012,7 @@
     </row>
     <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B12" s="55" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C12" s="58" t="str">
         <f>(0.5*0.518*6.3^2)&amp;" ჯ"</f>
@@ -9537,7 +10020,7 @@
       </c>
       <c r="D12" s="52"/>
       <c r="E12" s="55" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F12" s="58" t="str">
         <f>(0.5*0.518*21.3*21.3)&amp;" ჯ"</f>
@@ -9546,7 +10029,7 @@
     </row>
     <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B13" s="55" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C13" s="58" t="str">
         <f>0.5*0.518*5.7^2&amp;" ჯ"</f>
@@ -9554,7 +10037,7 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="55" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F13" s="58" t="str">
         <f>(0.5*0.518*16.7*16.7)&amp;" ჯ"</f>
@@ -9563,14 +10046,14 @@
     </row>
     <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B14" s="55" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C14" s="60">
         <v>0.18140000000000001</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="55" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F14" s="60">
         <v>0.38519999999999999</v>

--- a/PhysicsExperiments.xlsx
+++ b/PhysicsExperiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\PhysicsMechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC934D6-DE8B-484B-8D20-26C18EA269E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D40161-AE1D-4E38-BEEF-C8D178DEA826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="4" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{02603006-0041-44C1-99BD-A7230703DB2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment_0" sheetId="1" r:id="rId1"/>
@@ -2500,6 +2500,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2592,26 +2612,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5870,16 +5870,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -5896,8 +5896,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3867150" y="2009775"/>
-              <a:ext cx="3781425" cy="495300"/>
+              <a:off x="619126" y="2676525"/>
+              <a:ext cx="3600450" cy="495300"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5940,7 +5940,9 @@
                   <m:f>
                     <m:fPr>
                       <m:ctrlPr>
-                        <a:rPr lang="ka-GE" sz="1600" i="1"/>
+                        <a:rPr lang="ka-GE" sz="1600" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
                     <m:num>
@@ -5949,7 +5951,9 @@
                           <m:begChr m:val="|"/>
                           <m:endChr m:val="|"/>
                           <m:ctrlPr>
-                            <a:rPr lang="ka-GE" sz="1600" i="1"/>
+                            <a:rPr lang="ka-GE" sz="1600" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
                           </m:ctrlPr>
                         </m:dPr>
                         <m:e>
@@ -6029,8 +6033,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3867150" y="2009775"/>
-              <a:ext cx="3781425" cy="495300"/>
+              <a:off x="619126" y="2676525"/>
+              <a:ext cx="3600450" cy="495300"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6076,13 +6080,13 @@
                 <a:rPr lang="en-US" sz="1600" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑀𝑔−𝐹_𝑐</a:t>
+                <a:t>𝑀𝑔−𝐹_𝑐 |</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ka-GE" sz="1600" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t> |/</a:t>
+                <a:t>/</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1600" b="0" i="0">
@@ -6091,6 +6095,1018 @@
                 <a:t>𝑀𝑔∗100%=6.1%</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A89A56CA-4A0B-402E-8F04-393DAE2725D5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="276225" y="3571876"/>
+              <a:ext cx="8648700" cy="2324100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="1"/>
+                <a:t>პასუხები:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="1"/>
+                <a:t>1)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="0" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>აჩერებს დედამიწის მიზიდულობის ძალა. თუ ეს ძალა გაქრება მაშინ თანამგზავრები ღია კოსმოსში გაიფანტებიან;</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ცენტრისკენული აჩქარება მაქსიმალური იქნება ეკვატორის ხაზთან, ხოლო მინიმალური პოლუსებთან, რადგან </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>a=wR w - </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>არის კუთხური სიჩქარე და ის დედამიწის ნებისმიერ წერტილში ერთიდაიგივეა ხოლო ბრუნვის ღერძამდე მანძილი ეკვატორთან არის ყველაზე დიდი;</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> ალასკაში აწონილი ოქრო მცირედით მძიმე იქნება, რადგან უფრო ახლოსაა დედამიწის ბრუნვის ღერძთან და ცენტრისკენული აჩქარება უფრო ნაკლებია;</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>4)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>იმიტომ რომ ჩამოსრიალებისას მიენიჭება არამხოლოდ </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>x</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>არამედ </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>y </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>სიჩქარეც, იმისთვის რომ შეეხოს იმ წერტილს რომელიც მდებარეობს გზის შუაში, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>x </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>სიჩქარე უნდა იყოს ნული;</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑎</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>= </m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="dk1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="dk1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="dk1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑣</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="dk1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="dk1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑟</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>→10= </m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="dk1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="dk1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="dk1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑣</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="dk1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="dk1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>20</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>→</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑣</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="dk1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="dk1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>200</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:rad>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A89A56CA-4A0B-402E-8F04-393DAE2725D5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="276225" y="3571876"/>
+              <a:ext cx="8648700" cy="2324100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="1"/>
+                <a:t>პასუხები:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="1"/>
+                <a:t>1)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="0" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>აჩერებს დედამიწის მიზიდულობის ძალა. თუ ეს ძალა გაქრება მაშინ თანამგზავრები ღია კოსმოსში გაიფანტებიან;</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ცენტრისკენული აჩქარება მაქსიმალური იქნება ეკვატორის ხაზთან, ხოლო მინიმალური პოლუსებთან, რადგან </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>a=wR w - </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>არის კუთხური სიჩქარე და ის დედამიწის ნებისმიერ წერტილში ერთიდაიგივეა ხოლო ბრუნვის ღერძამდე მანძილი ეკვატორთან არის ყველაზე დიდი;</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> ალასკაში აწონილი ოქრო მცირედით მძიმე იქნება, რადგან უფრო ახლოსაა დედამიწის ბრუნვის ღერძთან და ცენტრისკენული აჩქარება უფრო ნაკლებია;</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>4)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>იმიტომ რომ ჩამოსრიალებისას მიენიჭება არამხოლოდ </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>x</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>არამედ </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>y </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>სიჩქარეც, იმისთვის რომ შეეხოს იმ წერტილს რომელიც მდებარეობს გზის შუაში, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>x </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>სიჩქარე უნდა იყოს ნული;</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ka-GE" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑎= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑣^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/𝑟</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>→10= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑣^2/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>20</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>→𝑣=√200</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -8336,21 +9352,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
     </row>
     <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -8548,22 +9564,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
@@ -8590,13 +9606,13 @@
       <c r="I3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -8626,11 +9642,11 @@
       <c r="I4" s="1">
         <v>9.7893340000000002</v>
       </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -8660,11 +9676,11 @@
       <c r="I5" s="1">
         <v>9.8269470000000005</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -8694,11 +9710,11 @@
       <c r="I6" s="1">
         <v>9.811223</v>
       </c>
-      <c r="J6" s="79"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -8769,75 +9785,75 @@
       <c r="N8" s="28"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J14" s="65" t="s">
+      <c r="J14" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="67"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="75"/>
     </row>
     <row r="15" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J15" s="68"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="70"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="78"/>
     </row>
     <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J16" s="68"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="70"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="78"/>
     </row>
     <row r="17" spans="10:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J17" s="71" t="s">
+      <c r="J17" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="73"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
     </row>
     <row r="18" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J18" s="71"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="73"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
     </row>
     <row r="19" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="71"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="73"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
     </row>
     <row r="20" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J20" s="74"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="76"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8869,19 +9885,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
       <c r="N1" s="21"/>
@@ -8999,18 +10015,18 @@
       <c r="B7" s="33">
         <v>0.02</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="G7" s="81" t="s">
+      <c r="E7" s="90"/>
+      <c r="G7" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="82"/>
-      <c r="J7" s="81" t="s">
+      <c r="H7" s="90"/>
+      <c r="J7" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="82"/>
+      <c r="K7" s="90"/>
     </row>
     <row r="8" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
@@ -9133,22 +10149,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
       <c r="O1" s="21"/>
       <c r="P1" s="21"/>
     </row>
@@ -9175,7 +10191,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="95" t="s">
         <v>89</v>
       </c>
       <c r="C5" s="31">
@@ -9205,7 +10221,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="88"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="31">
         <v>0.06</v>
       </c>
@@ -9233,7 +10249,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="89"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="31">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -9268,10 +10284,10 @@
         <f>(AVERAGE(J5:J7))</f>
         <v>0.23838723974333331</v>
       </c>
-      <c r="L8" s="85" t="s">
+      <c r="L8" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="M8" s="86"/>
+      <c r="M8" s="94"/>
       <c r="N8" s="41" t="s">
         <v>27</v>
       </c>
@@ -9287,10 +10303,10 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
-      <c r="L10" s="83" t="s">
+      <c r="L10" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="84"/>
+      <c r="M10" s="92"/>
       <c r="N10" s="51">
         <v>1E-3</v>
       </c>
@@ -9445,177 +10461,170 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1606FDA-2A00-4E45-A273-11FFE99BEEE9}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="7" width="12.5703125" customWidth="1"/>
+    <col min="2" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" customWidth="1"/>
     <col min="9" max="10" width="9.85546875" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="21" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="99" t="s">
+    <row r="3" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="62">
+        <v>1</v>
+      </c>
+      <c r="B4" s="62">
+        <v>0.12</v>
+      </c>
+      <c r="C4" s="62">
+        <v>7.06</v>
+      </c>
+      <c r="D4" s="64">
+        <v>6.86</v>
+      </c>
+      <c r="E4" s="64">
+        <v>7.43</v>
+      </c>
+      <c r="F4" s="65">
+        <f>(AVERAGE(C4:E4))</f>
+        <v>7.1166666666666671</v>
+      </c>
+      <c r="G4" s="62">
+        <v>0.51</v>
+      </c>
+      <c r="I4" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="J4" s="34" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="99" t="s">
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="62">
+        <v>2</v>
+      </c>
+      <c r="B5" s="62">
+        <v>0.15</v>
+      </c>
+      <c r="C5" s="65">
+        <v>7.5</v>
+      </c>
+      <c r="D5" s="64">
+        <v>8.35</v>
+      </c>
+      <c r="E5" s="64">
+        <v>7.75</v>
+      </c>
+      <c r="F5" s="65">
+        <f t="shared" ref="F5:F6" si="0">(AVERAGE(C5:E5))</f>
+        <v>7.8666666666666671</v>
+      </c>
+      <c r="G5" s="62">
+        <v>0.52</v>
+      </c>
+      <c r="I5" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="J5" s="34" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="99" t="s">
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="62">
+        <v>3</v>
+      </c>
+      <c r="B6" s="62">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="62">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="D6" s="62">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="E6" s="65">
+        <v>8.9</v>
+      </c>
+      <c r="F6" s="65">
+        <f t="shared" si="0"/>
+        <v>8.9666666666666668</v>
+      </c>
+      <c r="G6" s="62">
+        <v>0.54</v>
+      </c>
+      <c r="I6" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="J6" s="34" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="99" t="s">
+    <row r="7" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="100">
+      <c r="J7" s="69">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="93" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="94" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="94" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="94" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="H15" s="94" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="93">
-        <v>1</v>
-      </c>
-      <c r="C16" s="93">
-        <v>0.12</v>
-      </c>
-      <c r="D16" s="93">
-        <v>7.06</v>
-      </c>
-      <c r="E16" s="95">
-        <v>6.86</v>
-      </c>
-      <c r="F16" s="95">
-        <v>7.43</v>
-      </c>
-      <c r="G16" s="96">
-        <f>(AVERAGE(D16:F16))</f>
-        <v>7.1166666666666671</v>
-      </c>
-      <c r="H16" s="93">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="93">
-        <v>2</v>
-      </c>
-      <c r="C17" s="93">
-        <v>0.15</v>
-      </c>
-      <c r="D17" s="96">
-        <v>7.5</v>
-      </c>
-      <c r="E17" s="95">
-        <v>8.35</v>
-      </c>
-      <c r="F17" s="95">
-        <v>7.75</v>
-      </c>
-      <c r="G17" s="96">
-        <f t="shared" ref="G17:G18" si="0">(AVERAGE(D17:F17))</f>
-        <v>7.8666666666666671</v>
-      </c>
-      <c r="H17" s="93">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="93">
-        <v>3</v>
-      </c>
-      <c r="C18" s="93">
-        <v>0.2</v>
-      </c>
-      <c r="D18" s="93">
-        <v>9.0500000000000007</v>
-      </c>
-      <c r="E18" s="93">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="F18" s="96">
-        <v>8.9</v>
-      </c>
-      <c r="G18" s="96">
-        <f t="shared" si="0"/>
-        <v>8.9666666666666668</v>
-      </c>
-      <c r="H18" s="93">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="98" t="s">
-        <v>131</v>
-      </c>
-    </row>
+    <row r="15" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
@@ -9643,22 +10652,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
       <c r="O1" s="21"/>
     </row>
     <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -9668,15 +10677,15 @@
       <c r="B3" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
@@ -9764,15 +10773,15 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
@@ -9857,15 +10866,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
       <c r="H1" s="61"/>
       <c r="I1" s="61"/>
       <c r="J1" s="61"/>
@@ -9876,14 +10885,14 @@
       <c r="O1" s="61"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="E3" s="91" t="s">
+      <c r="C3" s="100"/>
+      <c r="E3" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="92"/>
+      <c r="F3" s="100"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
